--- a/data/指数数据.xlsx
+++ b/data/指数数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3590\Desktop\自动化项目工程文件\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E71983-30EB-470E-9825-C0B8A5F3F4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3023C84E-142F-461A-9449-32AED74CE8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>中证500指数</t>
   </si>
@@ -28,14 +28,19 @@
     <t>沪深300指数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>红利低波</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -97,19 +102,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -386,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C586"/>
+  <dimension ref="A1:D586"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A558" workbookViewId="0">
+      <selection activeCell="D586" sqref="A583:D586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -397,17 +403,21 @@
     <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="30.44140625" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41031</v>
       </c>
@@ -417,8 +427,11 @@
       <c r="C2" s="4">
         <v>2683.4870000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="6">
+        <v>4639.0860000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41033</v>
       </c>
@@ -428,8 +441,11 @@
       <c r="C3" s="4">
         <v>2715.8789999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="6">
+        <v>4667.3379999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41040</v>
       </c>
@@ -439,8 +455,11 @@
       <c r="C4" s="4">
         <v>2636.9169999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="6">
+        <v>4530.6909999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>41047</v>
       </c>
@@ -450,8 +469,11 @@
       <c r="C5" s="4">
         <v>2573.9760000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="6">
+        <v>4453.3230000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>41054</v>
       </c>
@@ -461,8 +483,11 @@
       <c r="C6" s="4">
         <v>2573.1030000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="6">
+        <v>4427.3059999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41061</v>
       </c>
@@ -472,8 +497,11 @@
       <c r="C7" s="4">
         <v>2632.998</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="6">
+        <v>4525.2150000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41068</v>
       </c>
@@ -483,8 +511,11 @@
       <c r="C8" s="4">
         <v>2524.3290000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="6">
+        <v>4356.8389999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>41075</v>
       </c>
@@ -494,8 +525,11 @@
       <c r="C9" s="4">
         <v>2568.0540000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="6">
+        <v>4427.7730000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41081</v>
       </c>
@@ -505,8 +539,11 @@
       <c r="C10" s="4">
         <v>2512.1849999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="6">
+        <v>4358.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41089</v>
       </c>
@@ -516,8 +553,11 @@
       <c r="C11" s="4">
         <v>2461.6120000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="6">
+        <v>4251.1610000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41096</v>
       </c>
@@ -527,8 +567,11 @@
       <c r="C12" s="4">
         <v>2472.614</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="6">
+        <v>4282.8379999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>41103</v>
       </c>
@@ -538,8 +581,11 @@
       <c r="C13" s="4">
         <v>2450.6329999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="6">
+        <v>4211.9759999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>41110</v>
       </c>
@@ -549,8 +595,11 @@
       <c r="C14" s="4">
         <v>2398.4549999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="6">
+        <v>4129.5060000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>41117</v>
       </c>
@@ -560,8 +609,11 @@
       <c r="C15" s="4">
         <v>2349.1080000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="6">
+        <v>4005.7759999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>41124</v>
       </c>
@@ -571,8 +623,11 @@
       <c r="C16" s="4">
         <v>2353.7370000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="6">
+        <v>4018.2220000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>41131</v>
       </c>
@@ -582,8 +637,11 @@
       <c r="C17" s="4">
         <v>2399.7510000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="6">
+        <v>4087.3820000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>41138</v>
       </c>
@@ -593,8 +651,11 @@
       <c r="C18" s="4">
         <v>2313.4760000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="6">
+        <v>3949.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41145</v>
       </c>
@@ -604,8 +665,11 @@
       <c r="C19" s="4">
         <v>2275.6770000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="6">
+        <v>3881.3919999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>41152</v>
       </c>
@@ -615,8 +679,11 @@
       <c r="C20" s="4">
         <v>2204.8679999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="6">
+        <v>3796.596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>41159</v>
       </c>
@@ -626,8 +693,11 @@
       <c r="C21" s="4">
         <v>2317.1790000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="6">
+        <v>3964.288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>41166</v>
       </c>
@@ -637,8 +707,11 @@
       <c r="C22" s="4">
         <v>2315.5419999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="6">
+        <v>3936.2510000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>41173</v>
       </c>
@@ -648,8 +721,11 @@
       <c r="C23" s="4">
         <v>2199.0630000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="6">
+        <v>3729.694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>41180</v>
       </c>
@@ -659,8 +735,11 @@
       <c r="C24" s="4">
         <v>2293.1060000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="6">
+        <v>3849.9279999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>41194</v>
       </c>
@@ -670,8 +749,11 @@
       <c r="C25" s="4">
         <v>2304.5309999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="6">
+        <v>3872.6010000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>41201</v>
       </c>
@@ -681,8 +763,11 @@
       <c r="C26" s="4">
         <v>2332.4699999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="6">
+        <v>3914.6010000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>41208</v>
       </c>
@@ -692,8 +777,11 @@
       <c r="C27" s="4">
         <v>2247.9070000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="6">
+        <v>3845.915</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>41215</v>
       </c>
@@ -703,8 +791,11 @@
       <c r="C28" s="4">
         <v>2306.7739999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="6">
+        <v>3955.2809999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>41222</v>
       </c>
@@ -714,8 +805,11 @@
       <c r="C29" s="4">
         <v>2240.924</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="6">
+        <v>3823.6709999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>41229</v>
       </c>
@@ -725,8 +819,11 @@
       <c r="C30" s="4">
         <v>2177.2399999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="6">
+        <v>3720.5030000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>41236</v>
       </c>
@@ -736,8 +833,11 @@
       <c r="C31" s="4">
         <v>2192.6759999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="6">
+        <v>3747.3270000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>41243</v>
       </c>
@@ -747,8 +847,11 @@
       <c r="C32" s="4">
         <v>2139.6610000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="6">
+        <v>3626.7359999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>41250</v>
       </c>
@@ -758,8 +861,11 @@
       <c r="C33" s="4">
         <v>2246.7570000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="6">
+        <v>3773.7109999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>41257</v>
       </c>
@@ -769,8 +875,11 @@
       <c r="C34" s="4">
         <v>2355.8649999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="6">
+        <v>3947.0210000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>41264</v>
       </c>
@@ -780,8 +889,11 @@
       <c r="C35" s="4">
         <v>2372.002</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="6">
+        <v>3959.9380000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>41271</v>
       </c>
@@ -791,8 +903,11 @@
       <c r="C36" s="4">
         <v>2480.049</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="6">
+        <v>4131.8289999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>41278</v>
       </c>
@@ -802,8 +917,11 @@
       <c r="C37" s="4">
         <v>2524.4090000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="6">
+        <v>4199.0349999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>41285</v>
       </c>
@@ -813,8 +931,11 @@
       <c r="C38" s="4">
         <v>2483.23</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="6">
+        <v>4154.6099999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>41292</v>
       </c>
@@ -824,8 +945,11 @@
       <c r="C39" s="4">
         <v>2595.4389999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="6">
+        <v>4325.6310000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>41299</v>
       </c>
@@ -835,8 +959,11 @@
       <c r="C40" s="4">
         <v>2571.674</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="6">
+        <v>4298.893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41306</v>
       </c>
@@ -846,8 +973,11 @@
       <c r="C41" s="4">
         <v>2743.3240000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="6">
+        <v>4552.3140000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41313</v>
       </c>
@@ -857,8 +987,11 @@
       <c r="C42" s="4">
         <v>2771.7249999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="6">
+        <v>4602.1009999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41327</v>
       </c>
@@ -868,8 +1001,11 @@
       <c r="C43" s="4">
         <v>2596.6039999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="6">
+        <v>4395.1639999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41334</v>
       </c>
@@ -879,8 +1015,11 @@
       <c r="C44" s="4">
         <v>2668.8359999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="6">
+        <v>4545.5200000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>41341</v>
       </c>
@@ -890,8 +1029,11 @@
       <c r="C45" s="4">
         <v>2606.9270000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="6">
+        <v>4572.3940000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>41348</v>
       </c>
@@ -901,8 +1043,11 @@
       <c r="C46" s="4">
         <v>2539.873</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="6">
+        <v>4438.723</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>41355</v>
       </c>
@@ -912,8 +1057,11 @@
       <c r="C47" s="4">
         <v>2618.308</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="6">
+        <v>4682.3059999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>41362</v>
       </c>
@@ -923,8 +1071,11 @@
       <c r="C48" s="4">
         <v>2495.0830000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="6">
+        <v>4518.5510000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>41367</v>
       </c>
@@ -934,8 +1085,11 @@
       <c r="C49" s="4">
         <v>2483.547</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="6">
+        <v>4511.674</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>41376</v>
       </c>
@@ -945,8 +1099,11 @@
       <c r="C50" s="4">
         <v>2462.1120000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="6">
+        <v>4472.84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>41383</v>
       </c>
@@ -956,8 +1113,11 @@
       <c r="C51" s="4">
         <v>2533.8270000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="6">
+        <v>4612.6090000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>41390</v>
       </c>
@@ -967,8 +1127,11 @@
       <c r="C52" s="4">
         <v>2447.306</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="6">
+        <v>4446.5709999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>41397</v>
       </c>
@@ -978,8 +1141,11 @@
       <c r="C53" s="4">
         <v>2492.9119999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="6">
+        <v>4544.4560000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>41404</v>
       </c>
@@ -989,8 +1155,11 @@
       <c r="C54" s="4">
         <v>2540.8359999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="6">
+        <v>4689.1620000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>41411</v>
       </c>
@@ -1000,8 +1169,11 @@
       <c r="C55" s="4">
         <v>2592.0479999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="6">
+        <v>4733.549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>41418</v>
       </c>
@@ -1011,8 +1183,11 @@
       <c r="C56" s="4">
         <v>2597.2280000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="6">
+        <v>4713.4480000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>41425</v>
       </c>
@@ -1022,8 +1197,11 @@
       <c r="C57" s="4">
         <v>2606.4259999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="6">
+        <v>4781.4809999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>41432</v>
       </c>
@@ -1033,8 +1211,11 @@
       <c r="C58" s="4">
         <v>2484.16</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="6">
+        <v>4496.5870000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>41439</v>
       </c>
@@ -1044,8 +1225,11 @@
       <c r="C59" s="4">
         <v>2416.7710000000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="6">
+        <v>4384.1750000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>41446</v>
       </c>
@@ -1055,8 +1239,11 @@
       <c r="C60" s="4">
         <v>2317.3939999999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="6">
+        <v>4211.6729999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>41453</v>
       </c>
@@ -1066,8 +1253,11 @@
       <c r="C61" s="4">
         <v>2200.6390000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="6">
+        <v>3970.558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>41460</v>
       </c>
@@ -1077,8 +1267,11 @@
       <c r="C62" s="4">
         <v>2226.8490000000002</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="6">
+        <v>4033.0709999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>41467</v>
       </c>
@@ -1088,8 +1281,11 @@
       <c r="C63" s="4">
         <v>2275.373</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="6">
+        <v>4124.4740000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>41474</v>
       </c>
@@ -1099,8 +1295,11 @@
       <c r="C64" s="4">
         <v>2190.4780000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="6">
+        <v>3954.3629999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>41481</v>
       </c>
@@ -1110,8 +1309,11 @@
       <c r="C65" s="4">
         <v>2224.0079999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="6">
+        <v>4030.6410000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>41488</v>
       </c>
@@ -1121,8 +1323,11 @@
       <c r="C66" s="4">
         <v>2247.2629999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="6">
+        <v>4062.915</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>41495</v>
       </c>
@@ -1132,8 +1337,11 @@
       <c r="C67" s="4">
         <v>2286.0100000000002</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="6">
+        <v>4097.5290000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>41502</v>
       </c>
@@ -1143,8 +1351,11 @@
       <c r="C68" s="4">
         <v>2304.1439999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="6">
+        <v>4161.1509999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>41509</v>
       </c>
@@ -1154,8 +1365,11 @@
       <c r="C69" s="4">
         <v>2286.9290000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="6">
+        <v>4159.6459999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>41516</v>
       </c>
@@ -1165,8 +1379,11 @@
       <c r="C70" s="4">
         <v>2313.91</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="6">
+        <v>4269.4970000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>41523</v>
       </c>
@@ -1176,8 +1393,11 @@
       <c r="C71" s="4">
         <v>2357.7820000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="6">
+        <v>4310.7550000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>41530</v>
       </c>
@@ -1187,8 +1407,11 @@
       <c r="C72" s="4">
         <v>2488.902</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="6">
+        <v>4543.3239999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>41535</v>
       </c>
@@ -1198,8 +1421,11 @@
       <c r="C73" s="4">
         <v>2432.5100000000002</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="6">
+        <v>4470.3289999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>41544</v>
       </c>
@@ -1209,8 +1435,11 @@
       <c r="C74" s="4">
         <v>2394.971</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="6">
+        <v>4412.5659999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>41558</v>
       </c>
@@ -1220,8 +1449,11 @@
       <c r="C75" s="4">
         <v>2468.5079999999998</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="6">
+        <v>4628.6499999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>41565</v>
       </c>
@@ -1231,8 +1463,11 @@
       <c r="C76" s="4">
         <v>2426.0540000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="6">
+        <v>4605.8050000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>41572</v>
       </c>
@@ -1242,8 +1477,11 @@
       <c r="C77" s="4">
         <v>2368.5590000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="6">
+        <v>4559.88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>41579</v>
       </c>
@@ -1253,8 +1491,11 @@
       <c r="C78" s="4">
         <v>2384.96</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="6">
+        <v>4562.7070000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>41586</v>
       </c>
@@ -1264,8 +1505,11 @@
       <c r="C79" s="4">
         <v>2307.9450000000002</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="6">
+        <v>4482.2659999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>41593</v>
       </c>
@@ -1275,8 +1519,11 @@
       <c r="C80" s="4">
         <v>2350.7339999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="6">
+        <v>4481.4650000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>41600</v>
       </c>
@@ -1286,8 +1533,11 @@
       <c r="C81" s="4">
         <v>2397.962</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="6">
+        <v>4655.527</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>41607</v>
       </c>
@@ -1297,8 +1547,11 @@
       <c r="C82" s="4">
         <v>2438.944</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="6">
+        <v>4716.7820000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>41614</v>
       </c>
@@ -1308,8 +1561,11 @@
       <c r="C83" s="4">
         <v>2452.2869999999998</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="6">
+        <v>4790.7259999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>41621</v>
       </c>
@@ -1319,8 +1575,11 @@
       <c r="C84" s="4">
         <v>2406.6390000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="6">
+        <v>4785.7430000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>41628</v>
       </c>
@@ -1330,8 +1589,11 @@
       <c r="C85" s="4">
         <v>2278.136</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="6">
+        <v>4529.7353999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>41635</v>
       </c>
@@ -1341,8 +1603,11 @@
       <c r="C86" s="4">
         <v>2303.4780000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="6">
+        <v>4604.7955000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>41642</v>
       </c>
@@ -1352,8 +1617,11 @@
       <c r="C87" s="4">
         <v>2290.779</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="6">
+        <v>4556.9215999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>41649</v>
       </c>
@@ -1363,8 +1631,11 @@
       <c r="C88" s="4">
         <v>2204.8510000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="6">
+        <v>4394.8882000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>41656</v>
       </c>
@@ -1374,8 +1645,11 @@
       <c r="C89" s="4">
         <v>2178.4879999999998</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="6">
+        <v>4368.9696000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>41663</v>
       </c>
@@ -1385,8 +1659,11 @@
       <c r="C90" s="4">
         <v>2245.6779999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="6">
+        <v>4516.1634999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>41669</v>
       </c>
@@ -1396,8 +1673,11 @@
       <c r="C91" s="4">
         <v>2202.4499999999998</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="6">
+        <v>4512.0150999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>41684</v>
       </c>
@@ -1407,8 +1687,11 @@
       <c r="C92" s="4">
         <v>2295.5749999999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="6">
+        <v>4698.5401000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>41691</v>
       </c>
@@ -1418,8 +1701,11 @@
       <c r="C93" s="4">
         <v>2264.2939999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="6">
+        <v>4709.1113999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>41698</v>
       </c>
@@ -1429,8 +1715,11 @@
       <c r="C94" s="4">
         <v>2178.971</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="6">
+        <v>4558.5412999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>41705</v>
       </c>
@@ -1440,8 +1729,11 @@
       <c r="C95" s="4">
         <v>2168.3580000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="6">
+        <v>4567.0971</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>41712</v>
       </c>
@@ -1451,8 +1743,11 @@
       <c r="C96" s="4">
         <v>2122.8359999999998</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="6">
+        <v>4526.8307000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>41719</v>
       </c>
@@ -1462,8 +1757,11 @@
       <c r="C97" s="4">
         <v>2158.7979999999998</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="6">
+        <v>4599.6866</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>41726</v>
       </c>
@@ -1473,8 +1771,11 @@
       <c r="C98" s="4">
         <v>2151.9650000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="6">
+        <v>4595.0376999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>41733</v>
       </c>
@@ -1484,8 +1785,11 @@
       <c r="C99" s="4">
         <v>2185.4720000000002</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="6">
+        <v>4654.6369999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>41740</v>
       </c>
@@ -1495,8 +1799,11 @@
       <c r="C100" s="4">
         <v>2270.6660000000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="6">
+        <v>4828.2120000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>41747</v>
       </c>
@@ -1506,8 +1813,11 @@
       <c r="C101" s="4">
         <v>2224.4789999999998</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="6">
+        <v>4737.4018999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>41754</v>
       </c>
@@ -1517,8 +1827,11 @@
       <c r="C102" s="4">
         <v>2167.826</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="6">
+        <v>4571.8518999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>41759</v>
       </c>
@@ -1528,8 +1841,11 @@
       <c r="C103" s="4">
         <v>2158.6590000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="6">
+        <v>4575.4561000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>41768</v>
       </c>
@@ -1539,8 +1855,11 @@
       <c r="C104" s="4">
         <v>2133.9110000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="6">
+        <v>4513.9551000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>41775</v>
       </c>
@@ -1550,8 +1869,11 @@
       <c r="C105" s="4">
         <v>2145.9520000000002</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="6">
+        <v>4557.9264000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>41782</v>
       </c>
@@ -1561,8 +1883,11 @@
       <c r="C106" s="4">
         <v>2148.4140000000002</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="6">
+        <v>4551.8696</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>41789</v>
       </c>
@@ -1572,8 +1897,11 @@
       <c r="C107" s="4">
         <v>2156.4639999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="6">
+        <v>4542.1772000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>41796</v>
       </c>
@@ -1583,8 +1911,11 @@
       <c r="C108" s="4">
         <v>2134.7159999999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="6">
+        <v>4513.3702000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>41803</v>
       </c>
@@ -1594,8 +1925,11 @@
       <c r="C109" s="4">
         <v>2176.2420000000002</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="6">
+        <v>4583.9341999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>41810</v>
       </c>
@@ -1605,8 +1939,11 @@
       <c r="C110" s="4">
         <v>2136.7289999999998</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="6">
+        <v>4476.1423999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>41817</v>
       </c>
@@ -1616,8 +1953,11 @@
       <c r="C111" s="4">
         <v>2150.2579999999998</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="6">
+        <v>4516.0757000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>41824</v>
       </c>
@@ -1627,8 +1967,11 @@
       <c r="C112" s="4">
         <v>2178.6950000000002</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="6">
+        <v>4589.3742000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>41831</v>
       </c>
@@ -1638,8 +1981,11 @@
       <c r="C113" s="4">
         <v>2148.009</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="6">
+        <v>4531.1562999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>41838</v>
       </c>
@@ -1649,8 +1995,11 @@
       <c r="C114" s="4">
         <v>2164.1439999999998</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="6">
+        <v>4587.0868</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>41845</v>
       </c>
@@ -1660,8 +2009,11 @@
       <c r="C115" s="4">
         <v>2260.4540000000002</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="6">
+        <v>4735.7929000000004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>41852</v>
       </c>
@@ -1671,8 +2023,11 @@
       <c r="C116" s="4">
         <v>2329.402</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="6">
+        <v>4837.0123000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>41859</v>
       </c>
@@ -1682,8 +2037,11 @@
       <c r="C117" s="4">
         <v>2331.134</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="6">
+        <v>4852.3672999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>41866</v>
       </c>
@@ -1693,8 +2051,11 @@
       <c r="C118" s="4">
         <v>2360.6350000000002</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="6">
+        <v>4923.4777999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>41873</v>
       </c>
@@ -1704,8 +2065,11 @@
       <c r="C119" s="4">
         <v>2365.364</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="6">
+        <v>4937.7164000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>41880</v>
       </c>
@@ -1715,8 +2079,11 @@
       <c r="C120" s="4">
         <v>2338.2869999999998</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="6">
+        <v>4888.8482000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>41887</v>
       </c>
@@ -1726,8 +2093,11 @@
       <c r="C121" s="4">
         <v>2449.259</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" s="6">
+        <v>5132.0475999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>41894</v>
       </c>
@@ -1737,8 +2107,11 @@
       <c r="C122" s="4">
         <v>2438.3580000000002</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="6">
+        <v>5113.8793999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>41901</v>
       </c>
@@ -1748,8 +2121,11 @@
       <c r="C123" s="4">
         <v>2425.2109999999998</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" s="6">
+        <v>5106.7305999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>41908</v>
       </c>
@@ -1759,8 +2135,11 @@
       <c r="C124" s="4">
         <v>2437.201</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" s="6">
+        <v>5159.9071000000004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>41912</v>
       </c>
@@ -1770,8 +2149,11 @@
       <c r="C125" s="4">
         <v>2450.9879999999998</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" s="6">
+        <v>5191.2799000000005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>41922</v>
       </c>
@@ -1781,8 +2163,11 @@
       <c r="C126" s="4">
         <v>2466.7890000000002</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="6">
+        <v>5184.5851000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>41929</v>
       </c>
@@ -1792,8 +2177,11 @@
       <c r="C127" s="4">
         <v>2441.732</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" s="6">
+        <v>5117.5690999999997</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>41936</v>
       </c>
@@ -1803,8 +2191,11 @@
       <c r="C128" s="4">
         <v>2390.7060000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="6">
+        <v>5027.4483</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>41943</v>
       </c>
@@ -1814,8 +2205,11 @@
       <c r="C129" s="4">
         <v>2508.3249999999998</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="6">
+        <v>5346.2844999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>41950</v>
       </c>
@@ -1825,8 +2219,11 @@
       <c r="C130" s="4">
         <v>2502.1529999999998</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="6">
+        <v>5321.4980999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>41957</v>
       </c>
@@ -1836,8 +2233,11 @@
       <c r="C131" s="4">
         <v>2581.0929999999998</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" s="6">
+        <v>5447.8100999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>41964</v>
       </c>
@@ -1847,8 +2247,11 @@
       <c r="C132" s="4">
         <v>2583.4549999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" s="6">
+        <v>5432.5614999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>41971</v>
       </c>
@@ -1858,8 +2261,11 @@
       <c r="C133" s="4">
         <v>2808.819</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" s="6">
+        <v>5785.6864999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>41978</v>
       </c>
@@ -1869,8 +2275,11 @@
       <c r="C134" s="4">
         <v>3124.8850000000002</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="6">
+        <v>6200.7681000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>41985</v>
       </c>
@@ -1880,8 +2289,11 @@
       <c r="C135" s="4">
         <v>3193.2269999999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" s="6">
+        <v>6332.53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>41992</v>
       </c>
@@ -1891,8 +2303,11 @@
       <c r="C136" s="4">
         <v>3383.1669999999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" s="6">
+        <v>6725.8900999999996</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>41999</v>
       </c>
@@ -1902,8 +2317,11 @@
       <c r="C137" s="4">
         <v>3445.8389999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" s="6">
+        <v>6866.8914000000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>42004</v>
       </c>
@@ -1913,8 +2331,11 @@
       <c r="C138" s="4">
         <v>3533.7049999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" s="6">
+        <v>6983.3648999999996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>42013</v>
       </c>
@@ -1924,8 +2345,11 @@
       <c r="C139" s="4">
         <v>3546.723</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" s="6">
+        <v>7035.8811999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>42020</v>
       </c>
@@ -1935,8 +2359,11 @@
       <c r="C140" s="4">
         <v>3635.1460000000002</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" s="6">
+        <v>7171.8140999999996</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>42027</v>
       </c>
@@ -1946,8 +2373,11 @@
       <c r="C141" s="4">
         <v>3571.732</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" s="6">
+        <v>6973.2510000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>42034</v>
       </c>
@@ -1957,8 +2387,11 @@
       <c r="C142" s="4">
         <v>3434.39</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" s="6">
+        <v>6802.0568999999996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>42041</v>
       </c>
@@ -1968,8 +2401,11 @@
       <c r="C143" s="4">
         <v>3312.42</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" s="6">
+        <v>6435.7599</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>42048</v>
       </c>
@@ -1979,8 +2415,11 @@
       <c r="C144" s="4">
         <v>3469.828</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" s="6">
+        <v>6669.2013999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>42062</v>
       </c>
@@ -1990,8 +2429,11 @@
       <c r="C145" s="4">
         <v>3572.8429999999998</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" s="6">
+        <v>6907.7677999999996</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>42069</v>
       </c>
@@ -2001,8 +2443,11 @@
       <c r="C146" s="4">
         <v>3478.52</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" s="6">
+        <v>6719.0675000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>42076</v>
       </c>
@@ -2012,8 +2457,11 @@
       <c r="C147" s="4">
         <v>3617.6570000000002</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" s="6">
+        <v>7086.7361000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>42083</v>
       </c>
@@ -2023,8 +2471,11 @@
       <c r="C148" s="4">
         <v>3892.5740000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" s="6">
+        <v>7551.4562999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>42090</v>
       </c>
@@ -2034,8 +2485,11 @@
       <c r="C149" s="4">
         <v>3971.6970000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" s="6">
+        <v>7685.5186999999996</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>42097</v>
       </c>
@@ -2045,8 +2499,11 @@
       <c r="C150" s="4">
         <v>4170.5379999999996</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" s="6">
+        <v>8049.2527</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>42104</v>
       </c>
@@ -2056,8 +2513,11 @@
       <c r="C151" s="4">
         <v>4344.4160000000002</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" s="6">
+        <v>8302.6309999999994</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>42111</v>
       </c>
@@ -2067,8 +2527,11 @@
       <c r="C152" s="4">
         <v>4596.1360000000004</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" s="6">
+        <v>8869.7415999999994</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>42118</v>
       </c>
@@ -2078,8 +2541,11 @@
       <c r="C153" s="4">
         <v>4702.6409999999996</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" s="6">
+        <v>8991.2636999999995</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>42124</v>
       </c>
@@ -2089,8 +2555,11 @@
       <c r="C154" s="4">
         <v>4749.8860000000004</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" s="6">
+        <v>9207.4714999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>42132</v>
       </c>
@@ -2100,8 +2569,11 @@
       <c r="C155" s="4">
         <v>4558.4040000000005</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" s="6">
+        <v>8783.9060000000009</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>42139</v>
       </c>
@@ -2111,8 +2583,11 @@
       <c r="C156" s="4">
         <v>4617.47</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" s="6">
+        <v>9063.4994999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>42146</v>
       </c>
@@ -2122,8 +2597,11 @@
       <c r="C157" s="4">
         <v>4951.335</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" s="6">
+        <v>9783.5876000000007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>42153</v>
       </c>
@@ -2133,8 +2611,11 @@
       <c r="C158" s="4">
         <v>4840.8289999999997</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" s="6">
+        <v>9903.6172000000006</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>42160</v>
       </c>
@@ -2144,8 +2625,11 @@
       <c r="C159" s="4">
         <v>5230.5519999999997</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" s="6">
+        <v>10890.7739</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>42167</v>
       </c>
@@ -2155,8 +2639,11 @@
       <c r="C160" s="4">
         <v>5335.1151</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" s="6">
+        <v>11103.5455</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>42174</v>
       </c>
@@ -2166,8 +2653,11 @@
       <c r="C161" s="4">
         <v>4637.0517</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" s="6">
+        <v>9735.6504999999997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>42181</v>
       </c>
@@ -2177,8 +2667,11 @@
       <c r="C162" s="4">
         <v>4336.1947</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" s="6">
+        <v>9183.5391999999993</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>42188</v>
       </c>
@@ -2188,8 +2681,11 @@
       <c r="C163" s="4">
         <v>3885.9169000000002</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" s="6">
+        <v>8055.1013999999996</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>42195</v>
       </c>
@@ -2199,8 +2695,11 @@
       <c r="C164" s="4">
         <v>4106.5560999999998</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" s="6">
+        <v>8631.9388999999992</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>42202</v>
       </c>
@@ -2210,8 +2709,11 @@
       <c r="C165" s="4">
         <v>4151.4956000000002</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" s="6">
+        <v>8769.0193999999992</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>42209</v>
       </c>
@@ -2221,8 +2723,11 @@
       <c r="C166" s="4">
         <v>4176.2786999999998</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" s="6">
+        <v>8784.2381000000005</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>42216</v>
       </c>
@@ -2232,8 +2737,11 @@
       <c r="C167" s="4">
         <v>3816.6993000000002</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" s="6">
+        <v>8059.4408000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>42223</v>
       </c>
@@ -2243,8 +2751,11 @@
       <c r="C168" s="4">
         <v>3906.9448000000002</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" s="6">
+        <v>8250.5382000000009</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>42230</v>
       </c>
@@ -2254,8 +2765,11 @@
       <c r="C169" s="4">
         <v>4073.54</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" s="6">
+        <v>8619.5064999999995</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>42237</v>
       </c>
@@ -2265,8 +2779,11 @@
       <c r="C170" s="4">
         <v>3589.5358000000001</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" s="6">
+        <v>7682.3643000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>42244</v>
       </c>
@@ -2276,8 +2793,11 @@
       <c r="C171" s="4">
         <v>3342.2863000000002</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" s="6">
+        <v>7179.9102000000003</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>42249</v>
       </c>
@@ -2287,8 +2807,11 @@
       <c r="C172" s="4">
         <v>3365.8317999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" s="6">
+        <v>7261.1729999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>42258</v>
       </c>
@@ -2298,8 +2821,11 @@
       <c r="C173" s="4">
         <v>3347.1878000000002</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" s="6">
+        <v>7191.3631999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>42265</v>
       </c>
@@ -2309,8 +2835,11 @@
       <c r="C174" s="4">
         <v>3251.2732000000001</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" s="6">
+        <v>6966.5077000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>42272</v>
       </c>
@@ -2320,8 +2849,11 @@
       <c r="C175" s="4">
         <v>3231.9513999999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" s="6">
+        <v>6902.6457</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>42277</v>
       </c>
@@ -2331,8 +2863,11 @@
       <c r="C176" s="4">
         <v>3202.9475000000002</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" s="6">
+        <v>6857.8564999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>42286</v>
       </c>
@@ -2342,8 +2877,11 @@
       <c r="C177" s="4">
         <v>3340.1158999999998</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" s="6">
+        <v>7115.9583000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>42293</v>
       </c>
@@ -2353,8 +2891,11 @@
       <c r="C178" s="4">
         <v>3534.0653000000002</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" s="6">
+        <v>7480.4781000000003</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>42300</v>
       </c>
@@ -2364,8 +2905,11 @@
       <c r="C179" s="4">
         <v>3571.2411000000002</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" s="6">
+        <v>7536.6422000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>42307</v>
       </c>
@@ -2375,8 +2919,11 @@
       <c r="C180" s="4">
         <v>3534.0787999999998</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" s="6">
+        <v>7470.9201999999996</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>42314</v>
       </c>
@@ -2386,8 +2933,11 @@
       <c r="C181" s="4">
         <v>3793.3739</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" s="6">
+        <v>7873.7655999999997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>42321</v>
       </c>
@@ -2397,8 +2947,11 @@
       <c r="C182" s="4">
         <v>3746.2422000000001</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" s="6">
+        <v>7811.4575000000004</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>42328</v>
       </c>
@@ -2408,8 +2961,11 @@
       <c r="C183" s="4">
         <v>3774.3833</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" s="6">
+        <v>7957.3275999999996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>42335</v>
       </c>
@@ -2419,8 +2975,11 @@
       <c r="C184" s="4">
         <v>3556.9924000000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" s="6">
+        <v>7574.7485999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>42342</v>
       </c>
@@ -2430,8 +2989,11 @@
       <c r="C185" s="4">
         <v>3677.5922</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" s="6">
+        <v>7830.5571</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>42349</v>
       </c>
@@ -2441,8 +3003,11 @@
       <c r="C186" s="4">
         <v>3608.0587</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" s="6">
+        <v>7654.2520999999997</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>42356</v>
       </c>
@@ -2452,8 +3017,11 @@
       <c r="C187" s="4">
         <v>3767.9128000000001</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" s="6">
+        <v>7928.5581000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>42363</v>
       </c>
@@ -2463,8 +3031,11 @@
       <c r="C188" s="4">
         <v>3838.201</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" s="6">
+        <v>8116.9283999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>42369</v>
       </c>
@@ -2474,8 +3045,11 @@
       <c r="C189" s="4">
         <v>3731.0047</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" s="6">
+        <v>7881.527</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>42377</v>
       </c>
@@ -2485,8 +3059,11 @@
       <c r="C190" s="4">
         <v>3361.5632000000001</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" s="6">
+        <v>7328.6435000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>42384</v>
       </c>
@@ -2496,8 +3073,11 @@
       <c r="C191" s="4">
         <v>3118.7301000000002</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" s="6">
+        <v>6777.6809000000003</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>42391</v>
       </c>
@@ -2507,8 +3087,11 @@
       <c r="C192" s="4">
         <v>3113.4625999999998</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" s="6">
+        <v>6748.8206</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>42398</v>
       </c>
@@ -2518,8 +3101,11 @@
       <c r="C193" s="4">
         <v>2946.0902000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" s="6">
+        <v>6431.8022000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>42405</v>
       </c>
@@ -2529,8 +3115,11 @@
       <c r="C194" s="4">
         <v>2963.7894000000001</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" s="6">
+        <v>6465.9790000000003</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>42419</v>
       </c>
@@ -2540,8 +3129,11 @@
       <c r="C195" s="4">
         <v>3051.585</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" s="6">
+        <v>6608.2425999999996</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>42426</v>
       </c>
@@ -2551,8 +3143,11 @@
       <c r="C196" s="4">
         <v>2948.0306</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" s="6">
+        <v>6451.0923000000003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>42433</v>
       </c>
@@ -2562,8 +3157,11 @@
       <c r="C197" s="4">
         <v>3093.8895000000002</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" s="6">
+        <v>6753.7650000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>42440</v>
       </c>
@@ -2573,8 +3171,11 @@
       <c r="C198" s="4">
         <v>3018.2844</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" s="6">
+        <v>6646.3968999999997</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>42447</v>
       </c>
@@ -2584,8 +3185,11 @@
       <c r="C199" s="4">
         <v>3171.9630000000002</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" s="6">
+        <v>6894.8154000000004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>42454</v>
       </c>
@@ -2595,8 +3199,11 @@
       <c r="C200" s="4">
         <v>3197.8168999999998</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" s="6">
+        <v>6898.1737000000003</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>42461</v>
       </c>
@@ -2606,8 +3213,11 @@
       <c r="C201" s="4">
         <v>3221.8948</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" s="6">
+        <v>6995.5838999999996</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>42468</v>
       </c>
@@ -2617,8 +3227,11 @@
       <c r="C202" s="4">
         <v>3185.7258000000002</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" s="6">
+        <v>6937.8951999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>42475</v>
       </c>
@@ -2628,8 +3241,11 @@
       <c r="C203" s="4">
         <v>3272.2053000000001</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" s="6">
+        <v>7086.7699000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>42482</v>
       </c>
@@ -2639,8 +3255,11 @@
       <c r="C204" s="4">
         <v>3174.9011999999998</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" s="6">
+        <v>6923.3221000000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>42489</v>
       </c>
@@ -2650,8 +3269,11 @@
       <c r="C205" s="4">
         <v>3156.7451000000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" s="6">
+        <v>6924.0312000000004</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>42496</v>
       </c>
@@ -2661,8 +3283,11 @@
       <c r="C206" s="4">
         <v>3130.3544000000002</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" s="6">
+        <v>6872.3428000000004</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>42503</v>
       </c>
@@ -2672,8 +3297,11 @@
       <c r="C207" s="4">
         <v>3074.9351000000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" s="6">
+        <v>6826.9152000000004</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>42510</v>
       </c>
@@ -2683,8 +3311,11 @@
       <c r="C208" s="4">
         <v>3078.2183</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" s="6">
+        <v>6791.9767000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>42517</v>
       </c>
@@ -2694,8 +3325,11 @@
       <c r="C209" s="4">
         <v>3062.4992999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" s="6">
+        <v>6804.5940000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>42524</v>
       </c>
@@ -2705,8 +3339,11 @@
       <c r="C210" s="4">
         <v>3189.3254999999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" s="6">
+        <v>6997.4678999999996</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>42529</v>
       </c>
@@ -2716,8 +3353,11 @@
       <c r="C211" s="4">
         <v>3163.9863999999998</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" s="6">
+        <v>6937.1289999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>42538</v>
       </c>
@@ -2727,8 +3367,11 @@
       <c r="C212" s="4">
         <v>3110.3571999999999</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" s="6">
+        <v>6873.3981999999996</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>42545</v>
       </c>
@@ -2738,8 +3381,11 @@
       <c r="C213" s="4">
         <v>3077.1554000000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" s="6">
+        <v>6777.4816000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>42552</v>
       </c>
@@ -2749,8 +3395,11 @@
       <c r="C214" s="4">
         <v>3154.2003</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" s="6">
+        <v>6911.0816999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>42559</v>
       </c>
@@ -2760,8 +3409,11 @@
       <c r="C215" s="4">
         <v>3192.2804000000001</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" s="6">
+        <v>6871.2503999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>42566</v>
       </c>
@@ -2771,8 +3423,11 @@
       <c r="C216" s="4">
         <v>3276.2775000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" s="6">
+        <v>7059.9498999999996</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>42573</v>
       </c>
@@ -2782,8 +3437,11 @@
       <c r="C217" s="4">
         <v>3225.1621</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" s="6">
+        <v>6982.2802000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>42580</v>
       </c>
@@ -2793,8 +3451,11 @@
       <c r="C218" s="4">
         <v>3203.9304000000002</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" s="6">
+        <v>7147.6545999999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>42587</v>
       </c>
@@ -2804,8 +3465,11 @@
       <c r="C219" s="4">
         <v>3205.1100999999999</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" s="6">
+        <v>7174.5649999999996</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>42594</v>
       </c>
@@ -2815,8 +3479,11 @@
       <c r="C220" s="4">
         <v>3294.2337000000002</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" s="6">
+        <v>7400.0510999999997</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>42601</v>
       </c>
@@ -2826,8 +3493,11 @@
       <c r="C221" s="4">
         <v>3365.0196999999998</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" s="6">
+        <v>7507.7964000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>42608</v>
       </c>
@@ -2837,8 +3507,11 @@
       <c r="C222" s="4">
         <v>3307.0902000000001</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" s="6">
+        <v>7413.6963999999998</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>42615</v>
       </c>
@@ -2848,8 +3521,11 @@
       <c r="C223" s="4">
         <v>3314.1142</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" s="6">
+        <v>7434.7533000000003</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>42622</v>
       </c>
@@ -2859,8 +3535,11 @@
       <c r="C224" s="4">
         <v>3318.0439999999999</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" s="6">
+        <v>7454.5531000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>42627</v>
       </c>
@@ -2870,8 +3549,11 @@
       <c r="C225" s="4">
         <v>3238.7298999999998</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" s="6">
+        <v>7265.2138999999997</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>42636</v>
       </c>
@@ -2881,8 +3563,11 @@
       <c r="C226" s="4">
         <v>3275.6664999999998</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" s="6">
+        <v>7388.58</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>42643</v>
       </c>
@@ -2892,8 +3577,11 @@
       <c r="C227" s="4">
         <v>3253.2847999999999</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" s="6">
+        <v>7370.7228999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>42657</v>
       </c>
@@ -2903,8 +3591,11 @@
       <c r="C228" s="4">
         <v>3305.8481000000002</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" s="6">
+        <v>7478.8959999999997</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>42664</v>
       </c>
@@ -2914,8 +3605,11 @@
       <c r="C229" s="4">
         <v>3327.74</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" s="6">
+        <v>7568.9562999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>42671</v>
       </c>
@@ -2925,8 +3619,11 @@
       <c r="C230" s="4">
         <v>3340.1262000000002</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" s="6">
+        <v>7535.9004999999997</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>42678</v>
       </c>
@@ -2936,8 +3633,11 @@
       <c r="C231" s="4">
         <v>3354.1749</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" s="6">
+        <v>7534.4418999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>42685</v>
       </c>
@@ -2947,8 +3647,11 @@
       <c r="C232" s="4">
         <v>3417.2211000000002</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" s="6">
+        <v>7608.3437000000004</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>42692</v>
       </c>
@@ -2958,8 +3661,11 @@
       <c r="C233" s="4">
         <v>3417.4553999999998</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" s="6">
+        <v>7649.7339000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>42699</v>
       </c>
@@ -2969,8 +3675,11 @@
       <c r="C234" s="4">
         <v>3521.2984000000001</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" s="6">
+        <v>7932.0370999999996</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>42706</v>
       </c>
@@ -2980,8 +3689,11 @@
       <c r="C235" s="4">
         <v>3528.9546999999998</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" s="6">
+        <v>7963.6410999999998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>42713</v>
       </c>
@@ -2991,8 +3703,11 @@
       <c r="C236" s="4">
         <v>3493.7004000000002</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" s="6">
+        <v>7929.5612000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>42720</v>
       </c>
@@ -3002,8 +3717,11 @@
       <c r="C237" s="4">
         <v>3346.0304999999998</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" s="6">
+        <v>7616.8586999999998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>42727</v>
       </c>
@@ -3013,8 +3731,11 @@
       <c r="C238" s="4">
         <v>3307.5990999999999</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" s="6">
+        <v>7545.1107000000002</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>42734</v>
       </c>
@@ -3024,8 +3745,11 @@
       <c r="C239" s="4">
         <v>3310.0808000000002</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" s="6">
+        <v>7551.6619000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>42741</v>
       </c>
@@ -3035,8 +3759,11 @@
       <c r="C240" s="4">
         <v>3347.6664999999998</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" s="6">
+        <v>7657.4066999999995</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>42748</v>
       </c>
@@ -3046,8 +3773,11 @@
       <c r="C241" s="4">
         <v>3319.9122000000002</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" s="6">
+        <v>7612.6109999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>42755</v>
       </c>
@@ -3057,8 +3787,11 @@
       <c r="C242" s="4">
         <v>3354.8890999999999</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" s="6">
+        <v>7734.7389000000003</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>42761</v>
       </c>
@@ -3068,8 +3801,11 @@
       <c r="C243" s="4">
         <v>3387.9605999999999</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" s="6">
+        <v>7792.9831000000004</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>42769</v>
       </c>
@@ -3079,8 +3815,11 @@
       <c r="C244" s="4">
         <v>3364.4922999999999</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" s="6">
+        <v>7740.1476000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>42776</v>
       </c>
@@ -3090,8 +3829,11 @@
       <c r="C245" s="4">
         <v>3413.4868000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" s="6">
+        <v>7859.2713000000003</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>42783</v>
       </c>
@@ -3101,8 +3843,11 @@
       <c r="C246" s="4">
         <v>3421.4418999999998</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246" s="6">
+        <v>7862.3429999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>42790</v>
       </c>
@@ -3112,8 +3857,11 @@
       <c r="C247" s="4">
         <v>3473.8517000000002</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" s="6">
+        <v>8007.1692999999996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>42797</v>
       </c>
@@ -3123,8 +3871,11 @@
       <c r="C248" s="4">
         <v>3427.8627999999999</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248" s="6">
+        <v>7947.5702000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>42804</v>
       </c>
@@ -3134,8 +3885,11 @@
       <c r="C249" s="4">
         <v>3427.8915999999999</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" s="6">
+        <v>7900.9400999999998</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>42811</v>
       </c>
@@ -3145,8 +3899,11 @@
       <c r="C250" s="4">
         <v>3445.8051</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250" s="6">
+        <v>7948.6706000000004</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>42818</v>
       </c>
@@ -3156,8 +3913,11 @@
       <c r="C251" s="4">
         <v>3489.5997000000002</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251" s="6">
+        <v>8080.3015999999998</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>42825</v>
       </c>
@@ -3167,8 +3927,11 @@
       <c r="C252" s="4">
         <v>3456.0455000000002</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252" s="6">
+        <v>8095.8806999999997</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>42832</v>
       </c>
@@ -3178,8 +3941,11 @@
       <c r="C253" s="4">
         <v>3517.4634000000001</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253" s="6">
+        <v>8295.6831999999995</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>42839</v>
       </c>
@@ -3189,8 +3955,11 @@
       <c r="C254" s="4">
         <v>3486.5045</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254" s="6">
+        <v>8331.2746000000006</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>42846</v>
       </c>
@@ -3200,8 +3969,11 @@
       <c r="C255" s="4">
         <v>3466.7865000000002</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255" s="6">
+        <v>8291.3811999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>42853</v>
       </c>
@@ -3211,8 +3983,11 @@
       <c r="C256" s="4">
         <v>3439.7530000000002</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256" s="6">
+        <v>8263.0362999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>42860</v>
       </c>
@@ -3222,8 +3997,11 @@
       <c r="C257" s="4">
         <v>3382.5502000000001</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257" s="6">
+        <v>8126.8966</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>42867</v>
       </c>
@@ -3233,8 +4011,11 @@
       <c r="C258" s="4">
         <v>3385.3787000000002</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258" s="6">
+        <v>8119.2757000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>42874</v>
       </c>
@@ -3244,8 +4025,11 @@
       <c r="C259" s="4">
         <v>3403.8492000000001</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259" s="6">
+        <v>8269.9141999999993</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>42881</v>
       </c>
@@ -3255,8 +4039,11 @@
       <c r="C260" s="4">
         <v>3480.4344999999998</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260" s="6">
+        <v>8391.3752999999997</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>42888</v>
       </c>
@@ -3266,8 +4053,11 @@
       <c r="C261" s="4">
         <v>3486.5074</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261" s="6">
+        <v>8426.6846000000005</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>42895</v>
       </c>
@@ -3277,8 +4067,11 @@
       <c r="C262" s="4">
         <v>3576.1703000000002</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262" s="6">
+        <v>8632.4339999999993</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>42902</v>
       </c>
@@ -3288,8 +4081,11 @@
       <c r="C263" s="4">
         <v>3518.7611000000002</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263" s="6">
+        <v>8422.1203000000005</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>42909</v>
       </c>
@@ -3299,8 +4095,11 @@
       <c r="C264" s="4">
         <v>3622.8831</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264" s="6">
+        <v>8682.0272000000004</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>42916</v>
       </c>
@@ -3310,8 +4109,11 @@
       <c r="C265" s="4">
         <v>3666.7977000000001</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265" s="6">
+        <v>8719.7435000000005</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>42923</v>
       </c>
@@ -3321,8 +4123,11 @@
       <c r="C266" s="4">
         <v>3655.9292999999998</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266" s="6">
+        <v>8691.7122999999992</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>42930</v>
       </c>
@@ -3332,8 +4137,11 @@
       <c r="C267" s="4">
         <v>3703.0940000000001</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267" s="6">
+        <v>8704.7692999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>42937</v>
       </c>
@@ -3343,8 +4151,11 @@
       <c r="C268" s="4">
         <v>3728.5976000000001</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268" s="6">
+        <v>8787.7518</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>42944</v>
       </c>
@@ -3354,8 +4165,11 @@
       <c r="C269" s="4">
         <v>3721.8914</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269" s="6">
+        <v>8757.8107999999993</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>42951</v>
       </c>
@@ -3365,8 +4179,11 @@
       <c r="C270" s="4">
         <v>3707.5796</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270" s="6">
+        <v>8621.7757999999994</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>42958</v>
       </c>
@@ -3376,8 +4193,11 @@
       <c r="C271" s="4">
         <v>3647.3503000000001</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271" s="6">
+        <v>8533.4372999999996</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>42965</v>
       </c>
@@ -3387,8 +4207,11 @@
       <c r="C272" s="4">
         <v>3724.6747999999998</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272" s="6">
+        <v>8660.2702000000008</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>42972</v>
       </c>
@@ -3398,8 +4221,11 @@
       <c r="C273" s="4">
         <v>3795.7543999999998</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273" s="6">
+        <v>8748.8878999999997</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>42979</v>
       </c>
@@ -3409,8 +4235,11 @@
       <c r="C274" s="4">
         <v>3830.5383000000002</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274" s="6">
+        <v>8713.6103000000003</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>42986</v>
       </c>
@@ -3420,8 +4249,11 @@
       <c r="C275" s="4">
         <v>3825.9895000000001</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275" s="6">
+        <v>8697.1604000000007</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>42993</v>
       </c>
@@ -3431,8 +4263,11 @@
       <c r="C276" s="4">
         <v>3831.2964999999999</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276" s="6">
+        <v>8736.7952000000005</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>43000</v>
       </c>
@@ -3442,8 +4277,11 @@
       <c r="C277" s="4">
         <v>3837.7303999999999</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277" s="6">
+        <v>8763.0692999999992</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>43007</v>
       </c>
@@ -3453,8 +4291,11 @@
       <c r="C278" s="4">
         <v>3836.5012999999999</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278" s="6">
+        <v>8751.6988000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>43021</v>
       </c>
@@ -3464,8 +4305,11 @@
       <c r="C279" s="4">
         <v>3921.0016999999998</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279" s="6">
+        <v>8949.0486000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>43028</v>
       </c>
@@ -3475,8 +4319,11 @@
       <c r="C280" s="4">
         <v>3926.8519999999999</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280" s="6">
+        <v>9029.5342000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>43035</v>
       </c>
@@ -3486,8 +4333,11 @@
       <c r="C281" s="4">
         <v>4021.9675999999999</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281" s="6">
+        <v>9184.8932000000004</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>43042</v>
       </c>
@@ -3497,8 +4347,11 @@
       <c r="C282" s="4">
         <v>3992.6979000000001</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282" s="6">
+        <v>8985.9824000000008</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>43049</v>
       </c>
@@ -3508,8 +4361,11 @@
       <c r="C283" s="4">
         <v>4111.9111999999996</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283" s="6">
+        <v>9175.0228000000006</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>43056</v>
       </c>
@@ -3519,8 +4375,11 @@
       <c r="C284" s="4">
         <v>4120.8508000000002</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284" s="6">
+        <v>9226.1335999999992</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>43063</v>
       </c>
@@ -3530,8 +4389,11 @@
       <c r="C285" s="4">
         <v>4104.2034000000003</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285" s="6">
+        <v>9140.3209999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>43070</v>
       </c>
@@ -3541,8 +4403,11 @@
       <c r="C286" s="4">
         <v>3998.1365000000001</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286" s="6">
+        <v>8953.5113000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>43077</v>
       </c>
@@ -3552,8 +4417,11 @@
       <c r="C287" s="4">
         <v>4003.3791999999999</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287" s="6">
+        <v>8918.4429999999993</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>43084</v>
       </c>
@@ -3563,8 +4431,11 @@
       <c r="C288" s="4">
         <v>3980.8557999999998</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288" s="6">
+        <v>8862.4655000000002</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>43091</v>
       </c>
@@ -3574,8 +4445,11 @@
       <c r="C289" s="4">
         <v>4054.5983999999999</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289" s="6">
+        <v>8971.7525000000005</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>43098</v>
       </c>
@@ -3585,8 +4459,11 @@
       <c r="C290" s="4">
         <v>4030.8548999999998</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290" s="6">
+        <v>9055.0753999999997</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>43105</v>
       </c>
@@ -3596,8 +4473,11 @@
       <c r="C291" s="4">
         <v>4138.7505000000001</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291" s="6">
+        <v>9352.8176000000003</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>43112</v>
       </c>
@@ -3607,8 +4487,11 @@
       <c r="C292" s="4">
         <v>4225.0010000000002</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292" s="6">
+        <v>9515.2168999999994</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>43119</v>
       </c>
@@ -3618,8 +4501,11 @@
       <c r="C293" s="4">
         <v>4285.3950000000004</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293" s="6">
+        <v>9648.1491000000005</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>43126</v>
       </c>
@@ -3629,8 +4515,11 @@
       <c r="C294" s="4">
         <v>4381.2996000000003</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294" s="6">
+        <v>9852.9899000000005</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>43133</v>
       </c>
@@ -3640,8 +4529,11 @@
       <c r="C295" s="4">
         <v>4271.2326000000003</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295" s="6">
+        <v>9609.3048999999992</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>43140</v>
       </c>
@@ -3651,8 +4543,11 @@
       <c r="C296" s="4">
         <v>3840.6527000000001</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296" s="6">
+        <v>8726.3179</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>43145</v>
       </c>
@@ -3662,8 +4557,11 @@
       <c r="C297" s="4">
         <v>3966.9614000000001</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297" s="6">
+        <v>8944.4901000000009</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>43154</v>
       </c>
@@ -3673,8 +4571,11 @@
       <c r="C298" s="4">
         <v>4071.0889000000002</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298" s="6">
+        <v>9191.8770999999997</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>43161</v>
       </c>
@@ -3684,8 +4585,11 @@
       <c r="C299" s="4">
         <v>4016.4609999999998</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299" s="6">
+        <v>9094.2839999999997</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>43168</v>
       </c>
@@ -3695,8 +4599,11 @@
       <c r="C300" s="4">
         <v>4108.8652000000002</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300" s="6">
+        <v>9269.8119999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>43175</v>
       </c>
@@ -3706,8 +4613,11 @@
       <c r="C301" s="4">
         <v>4056.4225999999999</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301" s="6">
+        <v>9161.3826000000008</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>43182</v>
       </c>
@@ -3717,8 +4627,11 @@
       <c r="C302" s="4">
         <v>3904.9355</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302" s="6">
+        <v>8781.0676999999996</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>43189</v>
       </c>
@@ -3728,8 +4641,11 @@
       <c r="C303" s="4">
         <v>3898.4976999999999</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303" s="6">
+        <v>8754.0161000000007</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>43194</v>
       </c>
@@ -3739,8 +4655,11 @@
       <c r="C304" s="4">
         <v>3854.8625000000002</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304" s="6">
+        <v>8664.7592000000004</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>43203</v>
       </c>
@@ -3750,8 +4669,11 @@
       <c r="C305" s="4">
         <v>3871.1442999999999</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305" s="6">
+        <v>8709.7824000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>43210</v>
       </c>
@@ -3761,8 +4683,11 @@
       <c r="C306" s="4">
         <v>3760.8543</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306" s="6">
+        <v>8441.7636000000002</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>43217</v>
       </c>
@@ -3772,8 +4697,11 @@
       <c r="C307" s="4">
         <v>3756.8764999999999</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307" s="6">
+        <v>8445.5812999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>43224</v>
       </c>
@@ -3783,8 +4711,11 @@
       <c r="C308" s="4">
         <v>3774.5981000000002</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308" s="6">
+        <v>8560.3824999999997</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>43231</v>
       </c>
@@ -3794,8 +4725,11 @@
       <c r="C309" s="4">
         <v>3872.8382999999999</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309" s="6">
+        <v>8793.8709999999992</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>43238</v>
       </c>
@@ -3805,8 +4739,11 @@
       <c r="C310" s="4">
         <v>3903.0637000000002</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310" s="6">
+        <v>8847.3300999999992</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>43245</v>
       </c>
@@ -3816,8 +4753,11 @@
       <c r="C311" s="4">
         <v>3816.498</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311" s="6">
+        <v>8722.3816999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>43252</v>
       </c>
@@ -3827,8 +4767,11 @@
       <c r="C312" s="4">
         <v>3770.5891000000001</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312" s="6">
+        <v>8686.1857999999993</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>43259</v>
       </c>
@@ -3838,8 +4781,11 @@
       <c r="C313" s="4">
         <v>3779.6158999999998</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313" s="6">
+        <v>8659.7788</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>43266</v>
       </c>
@@ -3849,8 +4795,11 @@
       <c r="C314" s="4">
         <v>3753.4337999999998</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314" s="6">
+        <v>8628.4338000000007</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>43273</v>
       </c>
@@ -3860,8 +4809,11 @@
       <c r="C315" s="4">
         <v>3608.9045999999998</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315" s="6">
+        <v>8253.2926000000007</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>43280</v>
       </c>
@@ -3871,8 +4823,11 @@
       <c r="C316" s="4">
         <v>3510.9845</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316" s="6">
+        <v>8071.0253000000002</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>43287</v>
       </c>
@@ -3882,8 +4837,11 @@
       <c r="C317" s="4">
         <v>3365.1226999999999</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317" s="6">
+        <v>7661.2066999999997</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>43294</v>
       </c>
@@ -3893,8 +4851,11 @@
       <c r="C318" s="4">
         <v>3492.6896999999999</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318" s="6">
+        <v>7876.1244999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>43301</v>
       </c>
@@ -3904,8 +4865,11 @@
       <c r="C319" s="4">
         <v>3492.8937999999998</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319" s="6">
+        <v>7797.9143000000004</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>43308</v>
       </c>
@@ -3915,8 +4879,11 @@
       <c r="C320" s="4">
         <v>3521.2269000000001</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320" s="6">
+        <v>7904.8793999999998</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>43315</v>
       </c>
@@ -3926,8 +4893,11 @@
       <c r="C321" s="4">
         <v>3315.2838999999999</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321" s="6">
+        <v>7458.4602999999997</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>43322</v>
       </c>
@@ -3937,8 +4907,11 @@
       <c r="C322" s="4">
         <v>3405.0191</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322" s="6">
+        <v>7620.0581000000002</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>43329</v>
       </c>
@@ -3948,8 +4921,11 @@
       <c r="C323" s="4">
         <v>3229.6197999999999</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323" s="6">
+        <v>7279.8235000000004</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>43336</v>
       </c>
@@ -3959,8 +4935,11 @@
       <c r="C324" s="4">
         <v>3325.3346999999999</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324" s="6">
+        <v>7412.4579999999996</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>43343</v>
       </c>
@@ -3970,8 +4949,11 @@
       <c r="C325" s="4">
         <v>3334.5036</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325" s="6">
+        <v>7462.1509999999998</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>43350</v>
       </c>
@@ -3981,8 +4963,11 @@
       <c r="C326" s="4">
         <v>3277.6437999999998</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D326" s="6">
+        <v>7362.0504000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>43357</v>
       </c>
@@ -3992,8 +4977,11 @@
       <c r="C327" s="4">
         <v>3242.0902000000001</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327" s="6">
+        <v>7384.4381999999996</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>43364</v>
       </c>
@@ -4003,8 +4991,11 @@
       <c r="C328" s="4">
         <v>3410.4856</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328" s="6">
+        <v>7737.3890000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>43371</v>
       </c>
@@ -4014,8 +5005,11 @@
       <c r="C329" s="4">
         <v>3438.8649</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329" s="6">
+        <v>7806.9832999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>43385</v>
       </c>
@@ -4025,8 +5019,11 @@
       <c r="C330" s="4">
         <v>3170.7262000000001</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330" s="6">
+        <v>7175.7601000000004</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>43392</v>
       </c>
@@ -4036,8 +5033,11 @@
       <c r="C331" s="4">
         <v>3134.9454999999998</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331" s="6">
+        <v>7087.3521000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>43399</v>
       </c>
@@ -4047,8 +5047,11 @@
       <c r="C332" s="4">
         <v>3173.6350000000002</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D332" s="6">
+        <v>7244.4085999999998</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>43406</v>
       </c>
@@ -4058,8 +5061,11 @@
       <c r="C333" s="4">
         <v>3290.2455</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333" s="6">
+        <v>7382.2294000000002</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>43413</v>
       </c>
@@ -4069,8 +5075,11 @@
       <c r="C334" s="4">
         <v>3167.4441999999999</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334" s="6">
+        <v>7183.7972</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>43420</v>
       </c>
@@ -4080,8 +5089,11 @@
       <c r="C335" s="4">
         <v>3257.6734999999999</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335" s="6">
+        <v>7427.3011999999999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>43427</v>
       </c>
@@ -4091,8 +5103,11 @@
       <c r="C336" s="4">
         <v>3143.4751999999999</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336" s="6">
+        <v>7196.5739000000003</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>43434</v>
       </c>
@@ -4102,8 +5117,11 @@
       <c r="C337" s="4">
         <v>3172.69</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337" s="6">
+        <v>7250.7557999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>43441</v>
       </c>
@@ -4113,8 +5131,11 @@
       <c r="C338" s="4">
         <v>3181.5646000000002</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338" s="6">
+        <v>7318.9081999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>43448</v>
       </c>
@@ -4124,8 +5145,11 @@
       <c r="C339" s="4">
         <v>3165.9108999999999</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339" s="6">
+        <v>7327.4539000000004</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>43455</v>
       </c>
@@ -4135,8 +5159,11 @@
       <c r="C340" s="4">
         <v>3029.3951000000002</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D340" s="6">
+        <v>7239.2187000000004</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>43462</v>
       </c>
@@ -4146,8 +5173,11 @@
       <c r="C341" s="4">
         <v>3010.6536000000001</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D341" s="6">
+        <v>7293.0424000000003</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>43469</v>
       </c>
@@ -4157,8 +5187,11 @@
       <c r="C342" s="4">
         <v>3035.8741</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D342" s="6">
+        <v>7285.1929</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>43476</v>
       </c>
@@ -4168,8 +5201,11 @@
       <c r="C343" s="4">
         <v>3094.7782000000002</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343" s="6">
+        <v>7375.0432000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>43483</v>
       </c>
@@ -4179,8 +5215,11 @@
       <c r="C344" s="4">
         <v>3168.1738999999998</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D344" s="6">
+        <v>7475.8721999999998</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>43490</v>
       </c>
@@ -4190,8 +5229,11 @@
       <c r="C345" s="4">
         <v>3184.4695999999999</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345" s="6">
+        <v>7545.3278</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>43497</v>
       </c>
@@ -4201,8 +5243,11 @@
       <c r="C346" s="4">
         <v>3247.3971000000001</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D346" s="6">
+        <v>7668.4358000000002</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>43511</v>
       </c>
@@ -4212,8 +5257,11 @@
       <c r="C347" s="4">
         <v>3338.7046999999998</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D347" s="6">
+        <v>7703.9479000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>43518</v>
       </c>
@@ -4223,8 +5271,11 @@
       <c r="C348" s="4">
         <v>3520.1181999999999</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348" s="6">
+        <v>7876.0609999999997</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>43525</v>
       </c>
@@ -4234,8 +5285,11 @@
       <c r="C349" s="4">
         <v>3749.7143000000001</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D349" s="6">
+        <v>8235.7101999999995</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>43532</v>
       </c>
@@ -4245,8 +5299,11 @@
       <c r="C350" s="4">
         <v>3657.5790000000002</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D350" s="6">
+        <v>8141.3728000000001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>43539</v>
       </c>
@@ -4256,8 +5313,11 @@
       <c r="C351" s="4">
         <v>3745.0050000000001</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D351" s="6">
+        <v>8368.7379000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>43546</v>
       </c>
@@ -4267,8 +5327,11 @@
       <c r="C352" s="4">
         <v>3833.8013000000001</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D352" s="6">
+        <v>8687.5262000000002</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>43553</v>
       </c>
@@ -4278,8 +5341,11 @@
       <c r="C353" s="4">
         <v>3872.3411999999998</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D353" s="6">
+        <v>8700.7145999999993</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>43559</v>
       </c>
@@ -4289,8 +5355,11 @@
       <c r="C354" s="4">
         <v>4062.2309</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D354" s="6">
+        <v>9126.1556999999993</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>43567</v>
       </c>
@@ -4300,8 +5369,11 @@
       <c r="C355" s="4">
         <v>3988.6167999999998</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D355" s="6">
+        <v>9013.5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>43574</v>
       </c>
@@ -4311,8 +5383,11 @@
       <c r="C356" s="4">
         <v>4120.6077999999998</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D356" s="6">
+        <v>9089.1779999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>43581</v>
       </c>
@@ -4322,8 +5397,11 @@
       <c r="C357" s="4">
         <v>3889.2748000000001</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D357" s="6">
+        <v>8479.3241999999991</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>43585</v>
       </c>
@@ -4333,8 +5411,11 @@
       <c r="C358" s="4">
         <v>3913.2109999999998</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D358" s="6">
+        <v>8566.2050999999992</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>43595</v>
       </c>
@@ -4344,8 +5425,11 @@
       <c r="C359" s="4">
         <v>3730.4513000000002</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D359" s="6">
+        <v>8269.9915000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>43602</v>
       </c>
@@ -4355,8 +5439,11 @@
       <c r="C360" s="4">
         <v>3648.7609000000002</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D360" s="6">
+        <v>8103.5014000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>43609</v>
       </c>
@@ -4366,8 +5453,11 @@
       <c r="C361" s="4">
         <v>3593.9139</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D361" s="6">
+        <v>8022.7290000000003</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>43616</v>
       </c>
@@ -4377,8 +5467,11 @@
       <c r="C362" s="4">
         <v>3629.7892999999999</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D362" s="6">
+        <v>8142.3076000000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>43622</v>
       </c>
@@ -4388,8 +5481,11 @@
       <c r="C363" s="4">
         <v>3564.6777999999999</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D363" s="6">
+        <v>8023.9407000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>43630</v>
       </c>
@@ -4399,8 +5495,11 @@
       <c r="C364" s="4">
         <v>3654.8798999999999</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D364" s="6">
+        <v>8069.4449000000004</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>43637</v>
       </c>
@@ -4410,8 +5509,11 @@
       <c r="C365" s="4">
         <v>3833.9382999999998</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D365" s="6">
+        <v>8284.8811999999998</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>43644</v>
       </c>
@@ -4421,8 +5523,11 @@
       <c r="C366" s="4">
         <v>3825.5873000000001</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D366" s="6">
+        <v>8170.3590000000004</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>43651</v>
       </c>
@@ -4432,8 +5537,11 @@
       <c r="C367" s="4">
         <v>3893.2024999999999</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D367" s="6">
+        <v>8371.7415000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>43658</v>
       </c>
@@ -4443,8 +5551,11 @@
       <c r="C368" s="4">
         <v>3808.7311</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D368" s="6">
+        <v>8113.9111999999996</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>43665</v>
       </c>
@@ -4454,8 +5565,11 @@
       <c r="C369" s="4">
         <v>3807.9551000000001</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D369" s="6">
+        <v>8118.8235000000004</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>43672</v>
       </c>
@@ -4465,8 +5579,11 @@
       <c r="C370" s="4">
         <v>3858.5688</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D370" s="6">
+        <v>8150.6109999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>43679</v>
       </c>
@@ -4476,8 +5593,11 @@
       <c r="C371" s="4">
         <v>3747.4378999999999</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D371" s="6">
+        <v>7958.3110999999999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>43686</v>
       </c>
@@ -4487,8 +5607,11 @@
       <c r="C372" s="4">
         <v>3633.5295999999998</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D372" s="6">
+        <v>7707.8818000000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>43693</v>
       </c>
@@ -4498,8 +5621,11 @@
       <c r="C373" s="4">
         <v>3710.5385999999999</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D373" s="6">
+        <v>7788.4602999999997</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>43700</v>
       </c>
@@ -4509,8 +5635,11 @@
       <c r="C374" s="4">
         <v>3820.8638000000001</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D374" s="6">
+        <v>7922.5430999999999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>43707</v>
       </c>
@@ -4520,8 +5649,11 @@
       <c r="C375" s="4">
         <v>3799.5862999999999</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D375" s="6">
+        <v>7862.0739999999996</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>43714</v>
       </c>
@@ -4531,8 +5663,11 @@
       <c r="C376" s="4">
         <v>3948.5075000000002</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D376" s="6">
+        <v>8048.9935999999998</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>43720</v>
       </c>
@@ -4542,8 +5677,11 @@
       <c r="C377" s="4">
         <v>3972.3798999999999</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D377" s="6">
+        <v>8119.5688</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>43728</v>
       </c>
@@ -4553,8 +5691,11 @@
       <c r="C378" s="4">
         <v>3935.6511</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D378" s="6">
+        <v>8076.2556999999997</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>43735</v>
       </c>
@@ -4564,8 +5705,11 @@
       <c r="C379" s="4">
         <v>3852.6534000000001</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D379" s="6">
+        <v>7904.6169</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>43749</v>
       </c>
@@ -4575,8 +5719,11 @@
       <c r="C380" s="4">
         <v>3911.7253000000001</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D380" s="6">
+        <v>8093.0871999999999</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>43756</v>
       </c>
@@ -4586,8 +5733,11 @@
       <c r="C381" s="4">
         <v>3869.3777</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D381" s="6">
+        <v>8020.4597999999996</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>43763</v>
       </c>
@@ -4597,8 +5747,11 @@
       <c r="C382" s="4">
         <v>3896.7923000000001</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D382" s="6">
+        <v>8081.8193000000001</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>43770</v>
       </c>
@@ -4608,8 +5761,11 @@
       <c r="C383" s="4">
         <v>3952.3872000000001</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D383" s="6">
+        <v>8064.4573</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>43777</v>
       </c>
@@ -4619,8 +5775,11 @@
       <c r="C384" s="4">
         <v>3973.0106999999998</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D384" s="6">
+        <v>8073.6304</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>43784</v>
       </c>
@@ -4630,8 +5789,11 @@
       <c r="C385" s="4">
         <v>3877.0891999999999</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D385" s="6">
+        <v>7861.3139000000001</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>43791</v>
       </c>
@@ -4641,8 +5803,11 @@
       <c r="C386" s="4">
         <v>3849.9947999999999</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D386" s="6">
+        <v>7936.0055000000002</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>43798</v>
       </c>
@@ -4652,8 +5817,11 @@
       <c r="C387" s="4">
         <v>3828.6705999999999</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D387" s="6">
+        <v>7984.8104000000003</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>43805</v>
       </c>
@@ -4663,8 +5831,11 @@
       <c r="C388" s="4">
         <v>3902.3852999999999</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D388" s="6">
+        <v>8048.9516000000003</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>43812</v>
       </c>
@@ -4674,8 +5845,11 @@
       <c r="C389" s="4">
         <v>3968.2211000000002</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D389" s="6">
+        <v>8190.5906999999997</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>43819</v>
       </c>
@@ -4685,8 +5859,11 @@
       <c r="C390" s="4">
         <v>4017.2527</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D390" s="6">
+        <v>8282.0424999999996</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>43826</v>
       </c>
@@ -4696,8 +5873,11 @@
       <c r="C391" s="4">
         <v>4022.0277999999998</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D391" s="6">
+        <v>8293.5668999999998</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>43830</v>
       </c>
@@ -4707,8 +5887,11 @@
       <c r="C392" s="4">
         <v>4096.5820999999996</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D392" s="6">
+        <v>8458.0941999999995</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>43833</v>
       </c>
@@ -4718,8 +5901,11 @@
       <c r="C393" s="4">
         <v>4144.9648999999999</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D393" s="6">
+        <v>8538.4725999999991</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>43840</v>
       </c>
@@ -4729,8 +5915,11 @@
       <c r="C394" s="4">
         <v>4163.1849000000002</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D394" s="6">
+        <v>8486.2142000000003</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>43847</v>
       </c>
@@ -4740,8 +5929,11 @@
       <c r="C395" s="4">
         <v>4154.8530000000001</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D395" s="6">
+        <v>8399.7059000000008</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>43853</v>
       </c>
@@ -4751,8 +5943,11 @@
       <c r="C396" s="4">
         <v>4003.9013</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D396" s="6">
+        <v>8012.8661000000002</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>43868</v>
       </c>
@@ -4762,8 +5957,11 @@
       <c r="C397" s="4">
         <v>3899.8692999999998</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D397" s="6">
+        <v>7582.0059000000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>43875</v>
       </c>
@@ -4773,8 +5971,11 @@
       <c r="C398" s="4">
         <v>3987.7341999999999</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D398" s="6">
+        <v>7783.2251999999999</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>43882</v>
       </c>
@@ -4784,8 +5985,11 @@
       <c r="C399" s="4">
         <v>4149.4903000000004</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D399" s="6">
+        <v>7956.0133999999998</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>43889</v>
       </c>
@@ -4795,8 +5999,11 @@
       <c r="C400" s="4">
         <v>3940.0488</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D400" s="6">
+        <v>7677.3770999999997</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>43896</v>
       </c>
@@ -4806,8 +6013,11 @@
       <c r="C401" s="4">
         <v>4138.5072</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D401" s="6">
+        <v>8024.3828999999996</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>43903</v>
       </c>
@@ -4817,8 +6027,11 @@
       <c r="C402" s="4">
         <v>3895.3128000000002</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D402" s="6">
+        <v>7594.5807999999997</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>43910</v>
       </c>
@@ -4828,8 +6041,11 @@
       <c r="C403" s="4">
         <v>3653.2239</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D403" s="6">
+        <v>7255.6333999999997</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>43917</v>
       </c>
@@ -4839,8 +6055,11 @@
       <c r="C404" s="4">
         <v>3710.0605</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D404" s="6">
+        <v>7390.7164000000002</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>43924</v>
       </c>
@@ -4850,8 +6069,11 @@
       <c r="C405" s="4">
         <v>3713.2183</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D405" s="6">
+        <v>7327.4201999999996</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>43931</v>
       </c>
@@ -4861,8 +6083,11 @@
       <c r="C406" s="4">
         <v>3769.1781999999998</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D406" s="6">
+        <v>7399.3029999999999</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>43938</v>
       </c>
@@ -4872,8 +6097,11 @@
       <c r="C407" s="4">
         <v>3839.4870999999998</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D407" s="6">
+        <v>7448.7130999999999</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>43945</v>
       </c>
@@ -4883,8 +6111,11 @@
       <c r="C408" s="4">
         <v>3796.9721</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D408" s="6">
+        <v>7363.6235999999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>43951</v>
       </c>
@@ -4894,8 +6125,11 @@
       <c r="C409" s="4">
         <v>3912.5772000000002</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D409" s="6">
+        <v>7609.9408000000003</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>43959</v>
       </c>
@@ -4905,8 +6139,11 @@
       <c r="C410" s="4">
         <v>3963.6217000000001</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D410" s="6">
+        <v>7649.9706999999999</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>43966</v>
       </c>
@@ -4916,8 +6153,11 @@
       <c r="C411" s="4">
         <v>3912.8159000000001</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D411" s="6">
+        <v>7517.2803999999996</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>43973</v>
       </c>
@@ -4927,8 +6167,11 @@
       <c r="C412" s="4">
         <v>3824.0639999999999</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D412" s="6">
+        <v>7355.7938000000004</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>43980</v>
       </c>
@@ -4938,8 +6181,11 @@
       <c r="C413" s="4">
         <v>3867.0232000000001</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D413" s="6">
+        <v>7416.9552000000003</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>43987</v>
       </c>
@@ -4949,8 +6195,11 @@
       <c r="C414" s="4">
         <v>4001.2509</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D414" s="6">
+        <v>7577.7820000000002</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>43994</v>
       </c>
@@ -4960,8 +6209,11 @@
       <c r="C415" s="4">
         <v>4003.0828999999999</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D415" s="6">
+        <v>7551.3338999999996</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>44001</v>
       </c>
@@ -4971,8 +6223,11 @@
       <c r="C416" s="4">
         <v>4098.7094999999999</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D416" s="6">
+        <v>7588.0096999999996</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>44006</v>
       </c>
@@ -4982,8 +6237,11 @@
       <c r="C417" s="4">
         <v>4138.9894999999997</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D417" s="6">
+        <v>7493.7074000000002</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>44015</v>
       </c>
@@ -4993,8 +6251,11 @@
       <c r="C418" s="4">
         <v>4419.5955000000004</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D418" s="6">
+        <v>7968.6971999999996</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>44022</v>
       </c>
@@ -5004,8 +6265,11 @@
       <c r="C419" s="4">
         <v>4753.1333000000004</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D419" s="6">
+        <v>8331.3675999999996</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>44029</v>
       </c>
@@ -5015,8 +6279,11 @@
       <c r="C420" s="4">
         <v>4544.7007000000003</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D420" s="6">
+        <v>8059.6701999999996</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>44036</v>
       </c>
@@ -5026,8 +6293,11 @@
       <c r="C421" s="4">
         <v>4505.5906000000004</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D421" s="6">
+        <v>8005.6854999999996</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>44043</v>
       </c>
@@ -5037,8 +6307,11 @@
       <c r="C422" s="4">
         <v>4695.0461999999998</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D422" s="6">
+        <v>8213.8881999999994</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>44050</v>
       </c>
@@ -5048,8 +6321,11 @@
       <c r="C423" s="4">
         <v>4707.9261999999999</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D423" s="6">
+        <v>8332.7201999999997</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>44057</v>
       </c>
@@ -5059,8 +6335,11 @@
       <c r="C424" s="4">
         <v>4704.6288000000004</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D424" s="6">
+        <v>8472.2353999999996</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>44064</v>
       </c>
@@ -5070,8 +6349,11 @@
       <c r="C425" s="4">
         <v>4718.8431</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D425" s="6">
+        <v>8580.3580000000002</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>44071</v>
       </c>
@@ -5081,8 +6363,11 @@
       <c r="C426" s="4">
         <v>4844.2651999999998</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D426" s="6">
+        <v>8584.2031000000006</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>44078</v>
       </c>
@@ -5092,8 +6377,11 @@
       <c r="C427" s="4">
         <v>4770.2190000000001</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D427" s="6">
+        <v>8343.7860999999994</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>44085</v>
       </c>
@@ -5103,8 +6391,11 @@
       <c r="C428" s="4">
         <v>4627.2825999999995</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D428" s="6">
+        <v>8153.1503000000002</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>44092</v>
       </c>
@@ -5114,8 +6405,11 @@
       <c r="C429" s="4">
         <v>4737.0887000000002</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D429" s="6">
+        <v>8392.1358999999993</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>44099</v>
       </c>
@@ -5125,8 +6419,11 @@
       <c r="C430" s="4">
         <v>4570.0216</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D430" s="6">
+        <v>8020.3696</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>44104</v>
       </c>
@@ -5136,8 +6433,11 @@
       <c r="C431" s="4">
         <v>4587.3953000000001</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D431" s="6">
+        <v>8007.4732000000004</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>44113</v>
       </c>
@@ -5147,8 +6447,11 @@
       <c r="C432" s="4">
         <v>4681.1412</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D432" s="6">
+        <v>8147.8562000000002</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>44120</v>
       </c>
@@ -5158,8 +6461,11 @@
       <c r="C433" s="4">
         <v>4791.6760000000004</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D433" s="6">
+        <v>8300.6761000000006</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>44127</v>
       </c>
@@ -5169,8 +6475,11 @@
       <c r="C434" s="4">
         <v>4718.4880999999996</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D434" s="6">
+        <v>8174.5290000000005</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>44134</v>
       </c>
@@ -5180,8 +6489,11 @@
       <c r="C435" s="4">
         <v>4695.3338000000003</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D435" s="6">
+        <v>8042.7138999999997</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>44141</v>
       </c>
@@ -5191,8 +6503,11 @@
       <c r="C436" s="4">
         <v>4885.7178000000004</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D436" s="6">
+        <v>8414.2561999999998</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>44148</v>
       </c>
@@ -5202,8 +6517,11 @@
       <c r="C437" s="4">
         <v>4856.8513000000003</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D437" s="6">
+        <v>8524.9439000000002</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>44155</v>
       </c>
@@ -5213,8 +6531,11 @@
       <c r="C438" s="4">
         <v>4943.2882</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D438" s="6">
+        <v>8787.0090999999993</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>44162</v>
       </c>
@@ -5224,8 +6545,11 @@
       <c r="C439" s="4">
         <v>4980.7650000000003</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D439" s="6">
+        <v>8829.2790000000005</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>44169</v>
       </c>
@@ -5235,8 +6559,11 @@
       <c r="C440" s="4">
         <v>5065.9162999999999</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D440" s="6">
+        <v>8732.7221000000009</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>44176</v>
       </c>
@@ -5246,8 +6573,11 @@
       <c r="C441" s="4">
         <v>4889.6292000000003</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D441" s="6">
+        <v>8438.0316000000003</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>44183</v>
       </c>
@@ -5257,8 +6587,11 @@
       <c r="C442" s="4">
         <v>4999.9678000000004</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D442" s="6">
+        <v>8433.7891</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>44190</v>
       </c>
@@ -5268,8 +6601,11 @@
       <c r="C443" s="4">
         <v>5042.0137000000004</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D443" s="6">
+        <v>8215.8027999999995</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>44196</v>
       </c>
@@ -5279,8 +6615,11 @@
       <c r="C444" s="4">
         <v>5211.2884999999997</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D444" s="6">
+        <v>8207.4712999999992</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>44204</v>
       </c>
@@ -5290,8 +6629,11 @@
       <c r="C445" s="4">
         <v>5495.4305999999997</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D445" s="6">
+        <v>8240.4403000000002</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>44211</v>
       </c>
@@ -5301,8 +6643,11 @@
       <c r="C446" s="4">
         <v>5458.0811999999996</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D446" s="6">
+        <v>8188.3854000000001</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>44218</v>
       </c>
@@ -5312,8 +6657,11 @@
       <c r="C447" s="4">
         <v>5569.7759999999998</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D447" s="6">
+        <v>8105.2339000000002</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>44225</v>
       </c>
@@ -5323,8 +6671,11 @@
       <c r="C448" s="4">
         <v>5351.9646000000002</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D448" s="6">
+        <v>7918.8756000000003</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>44232</v>
       </c>
@@ -5334,8 +6685,11 @@
       <c r="C449" s="4">
         <v>5483.4139999999998</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D449" s="6">
+        <v>8033.2021999999997</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>44237</v>
       </c>
@@ -5345,8 +6699,11 @@
       <c r="C450" s="4">
         <v>5807.7191000000003</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D450" s="6">
+        <v>8109.3017</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>44246</v>
       </c>
@@ -5356,8 +6713,11 @@
       <c r="C451" s="4">
         <v>5778.8419999999996</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D451" s="6">
+        <v>8420.6136000000006</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>44253</v>
       </c>
@@ -5367,8 +6727,11 @@
       <c r="C452" s="4">
         <v>5336.7609000000002</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D452" s="6">
+        <v>8429.9408000000003</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>44260</v>
       </c>
@@ -5378,8 +6741,11 @@
       <c r="C453" s="4">
         <v>5262.7957999999999</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D453" s="6">
+        <v>8575.8353999999999</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>44267</v>
       </c>
@@ -5389,8 +6755,11 @@
       <c r="C454" s="4">
         <v>5146.3786</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D454" s="6">
+        <v>8767.0931</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>44274</v>
       </c>
@@ -5400,8 +6769,11 @@
       <c r="C455" s="4">
         <v>5007.0906999999997</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D455" s="6">
+        <v>8704.9150000000009</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>44281</v>
       </c>
@@ -5411,8 +6783,11 @@
       <c r="C456" s="4">
         <v>5037.9898999999996</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D456" s="6">
+        <v>8628.3490000000002</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>44288</v>
       </c>
@@ -5422,8 +6797,11 @@
       <c r="C457" s="4">
         <v>5161.5568999999996</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D457" s="6">
+        <v>8722.7687000000005</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>44295</v>
       </c>
@@ -5433,8 +6811,11 @@
       <c r="C458" s="4">
         <v>5035.3374000000003</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D458" s="6">
+        <v>8773.4892999999993</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>44302</v>
       </c>
@@ -5444,8 +6825,11 @@
       <c r="C459" s="4">
         <v>4966.1810999999998</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D459" s="6">
+        <v>8902.0434000000005</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>44309</v>
       </c>
@@ -5455,8 +6839,11 @@
       <c r="C460" s="4">
         <v>5135.4534000000003</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D460" s="6">
+        <v>8822.1484</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>44316</v>
       </c>
@@ -5466,8 +6853,11 @@
       <c r="C461" s="4">
         <v>5123.4889999999996</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D461" s="6">
+        <v>8838.8117000000002</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>44323</v>
       </c>
@@ -5477,8 +6867,11 @@
       <c r="C462" s="4">
         <v>4996.0527000000002</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D462" s="6">
+        <v>9002.1792000000005</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>44330</v>
       </c>
@@ -5488,8 +6881,11 @@
       <c r="C463" s="4">
         <v>5110.5901000000003</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D463" s="6">
+        <v>9071.0638999999992</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>44337</v>
       </c>
@@ -5499,8 +6895,11 @@
       <c r="C464" s="4">
         <v>5134.1482999999998</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D464" s="6">
+        <v>8999.8603000000003</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>44344</v>
       </c>
@@ -5510,8 +6909,11 @@
       <c r="C465" s="4">
         <v>5321.0886</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D465" s="6">
+        <v>9349.0079000000005</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>44351</v>
       </c>
@@ -5521,8 +6923,11 @@
       <c r="C466" s="4">
         <v>5282.2772000000004</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D466" s="6">
+        <v>9336.9048999999995</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>44358</v>
       </c>
@@ -5532,8 +6937,11 @@
       <c r="C467" s="4">
         <v>5224.7030000000004</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D467" s="6">
+        <v>9194.3868000000002</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>44365</v>
       </c>
@@ -5543,8 +6951,11 @@
       <c r="C468" s="4">
         <v>5102.4656999999997</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D468" s="6">
+        <v>8981.1262999999999</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>44372</v>
       </c>
@@ -5554,8 +6965,11 @@
       <c r="C469" s="4">
         <v>5239.9683999999997</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D469" s="6">
+        <v>9098.7613999999994</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>44379</v>
       </c>
@@ -5565,8 +6979,11 @@
       <c r="C470" s="4">
         <v>5081.1171999999997</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D470" s="6">
+        <v>8914.4415000000008</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>44386</v>
       </c>
@@ -5576,8 +6993,11 @@
       <c r="C471" s="4">
         <v>5069.4360999999999</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D471" s="6">
+        <v>8720.0272999999997</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>44393</v>
       </c>
@@ -5587,8 +7007,11 @@
       <c r="C472" s="4">
         <v>5094.7727000000004</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D472" s="6">
+        <v>8721.7268999999997</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>44400</v>
       </c>
@@ -5598,8 +7021,11 @@
       <c r="C473" s="4">
         <v>5089.2281999999996</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D473" s="6">
+        <v>8619.2319000000007</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>44407</v>
       </c>
@@ -5609,8 +7035,11 @@
       <c r="C474" s="4">
         <v>4811.1695</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D474" s="6">
+        <v>8154.1842999999999</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>44414</v>
       </c>
@@ -5620,8 +7049,11 @@
       <c r="C475" s="4">
         <v>4921.5646999999999</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D475" s="6">
+        <v>8142.3966</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>44421</v>
       </c>
@@ -5631,8 +7063,11 @@
       <c r="C476" s="4">
         <v>4945.9829</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D476" s="6">
+        <v>8552.2934999999998</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>44428</v>
       </c>
@@ -5642,8 +7077,11 @@
       <c r="C477" s="4">
         <v>4769.2677999999996</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D477" s="6">
+        <v>8446.4424999999992</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>44435</v>
       </c>
@@ -5653,8 +7091,11 @@
       <c r="C478" s="4">
         <v>4827.0433000000003</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D478" s="6">
+        <v>8773.5596999999998</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>44442</v>
       </c>
@@ -5664,8 +7105,11 @@
       <c r="C479" s="4">
         <v>4843.0623999999998</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D479" s="6">
+        <v>9169.0918999999994</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>44449</v>
       </c>
@@ -5675,8 +7119,11 @@
       <c r="C480" s="4">
         <v>5013.5218999999997</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D480" s="6">
+        <v>9803.8629999999994</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>44456</v>
       </c>
@@ -5686,8 +7133,11 @@
       <c r="C481" s="4">
         <v>4855.9402</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D481" s="6">
+        <v>9586.1926000000003</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>44463</v>
       </c>
@@ -5697,8 +7147,11 @@
       <c r="C482" s="4">
         <v>4849.4277000000002</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D482" s="6">
+        <v>9511.8984999999993</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>44469</v>
       </c>
@@ -5708,8 +7161,11 @@
       <c r="C483" s="4">
         <v>4866.3825999999999</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D483" s="6">
+        <v>9399.9866000000002</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>44477</v>
       </c>
@@ -5719,8 +7175,11 @@
       <c r="C484" s="4">
         <v>4929.9408999999996</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D484" s="6">
+        <v>9321.6484</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>44484</v>
       </c>
@@ -5730,8 +7189,11 @@
       <c r="C485" s="4">
         <v>4932.1084000000001</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D485" s="6">
+        <v>9155.3914000000004</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>44491</v>
       </c>
@@ -5741,8 +7203,11 @@
       <c r="C486" s="4">
         <v>4959.7254000000003</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D486" s="6">
+        <v>9074.5519000000004</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>44498</v>
       </c>
@@ -5752,8 +7217,11 @@
       <c r="C487" s="4">
         <v>4908.7700999999997</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D487" s="6">
+        <v>8565.5859999999993</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>44505</v>
       </c>
@@ -5763,8 +7231,11 @@
       <c r="C488" s="4">
         <v>4842.3458000000001</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D488" s="6">
+        <v>8404.2253000000001</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>44512</v>
       </c>
@@ -5774,8 +7245,11 @@
       <c r="C489" s="4">
         <v>4888.3748999999998</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D489" s="6">
+        <v>8507.9279000000006</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>44519</v>
       </c>
@@ -5785,8 +7259,11 @@
       <c r="C490" s="4">
         <v>4890.0574999999999</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D490" s="6">
+        <v>8524.0444000000007</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>44526</v>
       </c>
@@ -5796,8 +7273,11 @@
       <c r="C491" s="4">
         <v>4860.1265000000003</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D491" s="6">
+        <v>8572.0997000000007</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>44533</v>
       </c>
@@ -5807,8 +7287,11 @@
       <c r="C492" s="4">
         <v>4901.0174999999999</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D492" s="6">
+        <v>8789.3101999999999</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>44540</v>
       </c>
@@ -5818,8 +7301,11 @@
       <c r="C493" s="4">
         <v>5055.1171999999997</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D493" s="6">
+        <v>8863.5478999999996</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>44547</v>
       </c>
@@ -5829,8 +7315,11 @@
       <c r="C494" s="4">
         <v>4954.7599</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D494" s="6">
+        <v>9013.9132000000009</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>44554</v>
       </c>
@@ -5840,8 +7329,11 @@
       <c r="C495" s="4">
         <v>4921.3449000000001</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D495" s="6">
+        <v>9073.2448000000004</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>44561</v>
       </c>
@@ -5851,8 +7343,11 @@
       <c r="C496" s="4">
         <v>4940.3733000000002</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D496" s="6">
+        <v>9093.6440000000002</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>44568</v>
       </c>
@@ -5862,8 +7357,11 @@
       <c r="C497" s="4">
         <v>4822.3689000000004</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D497" s="6">
+        <v>9439.8109000000004</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>44575</v>
       </c>
@@ -5873,8 +7371,11 @@
       <c r="C498" s="4">
         <v>4726.7317000000003</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D498" s="6">
+        <v>9250.6605999999992</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>44582</v>
       </c>
@@ -5884,8 +7385,11 @@
       <c r="C499" s="4">
         <v>4779.3141999999998</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D499" s="6">
+        <v>9390.6252999999997</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>44589</v>
       </c>
@@ -5895,8 +7399,11 @@
       <c r="C500" s="4">
         <v>4563.7719999999999</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D500" s="6">
+        <v>9023.2787000000008</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>44603</v>
       </c>
@@ -5906,8 +7413,11 @@
       <c r="C501" s="4">
         <v>4601.3953000000001</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D501" s="6">
+        <v>9702.2088999999996</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>44610</v>
       </c>
@@ -5917,8 +7427,11 @@
       <c r="C502" s="4">
         <v>4651.2358000000004</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D502" s="6">
+        <v>9700.5630000000001</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>44617</v>
       </c>
@@ -5928,8 +7441,11 @@
       <c r="C503" s="4">
         <v>4573.4246999999996</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D503" s="6">
+        <v>9343.3912999999993</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>44624</v>
       </c>
@@ -5939,8 +7455,11 @@
       <c r="C504" s="4">
         <v>4496.4300999999996</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D504" s="6">
+        <v>9583.0169000000005</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>44631</v>
       </c>
@@ -5950,8 +7469,11 @@
       <c r="C505" s="4">
         <v>4306.5217000000002</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D505" s="6">
+        <v>9228.0386999999992</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>44638</v>
       </c>
@@ -5961,8 +7483,11 @@
       <c r="C506" s="4">
         <v>4265.9017000000003</v>
       </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D506" s="6">
+        <v>9079.9251999999997</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>44645</v>
       </c>
@@ -5972,8 +7497,11 @@
       <c r="C507" s="4">
         <v>4174.5742</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D507" s="6">
+        <v>9181.9699999999993</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>44652</v>
       </c>
@@ -5983,8 +7511,11 @@
       <c r="C508" s="4">
         <v>4276.1580000000004</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D508" s="6">
+        <v>9775.9956999999995</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>44659</v>
       </c>
@@ -5994,8 +7525,11 @@
       <c r="C509" s="4">
         <v>4230.7668999999996</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D509" s="6">
+        <v>9901.7620999999999</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>44666</v>
       </c>
@@ -6005,8 +7539,11 @@
       <c r="C510" s="4">
         <v>4188.7471999999998</v>
       </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D510" s="6">
+        <v>9810.3580000000002</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>44673</v>
       </c>
@@ -6016,8 +7553,11 @@
       <c r="C511" s="4">
         <v>4013.2498000000001</v>
       </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D511" s="6">
+        <v>9532.9940999999999</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>44680</v>
       </c>
@@ -6027,8 +7567,11 @@
       <c r="C512" s="4">
         <v>4016.241</v>
       </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D512" s="6">
+        <v>9515.1771000000008</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>44687</v>
       </c>
@@ -6038,8 +7581,11 @@
       <c r="C513" s="4">
         <v>3908.8150000000001</v>
       </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D513" s="6">
+        <v>9251.3073000000004</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>44694</v>
       </c>
@@ -6049,8 +7595,11 @@
       <c r="C514" s="4">
         <v>3988.6001999999999</v>
       </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D514" s="6">
+        <v>9615.2350999999999</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>44701</v>
       </c>
@@ -6060,8 +7609,11 @@
       <c r="C515" s="4">
         <v>4077.5998</v>
       </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D515" s="6">
+        <v>9583.6398000000008</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>44708</v>
       </c>
@@ -6071,8 +7623,11 @@
       <c r="C516" s="4">
         <v>4001.2988</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D516" s="6">
+        <v>9629.7723000000005</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>44714</v>
       </c>
@@ -6082,8 +7637,11 @@
       <c r="C517" s="4">
         <v>4089.5682000000002</v>
       </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D517" s="6">
+        <v>9504.9110999999994</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>44722</v>
       </c>
@@ -6093,8 +7651,11 @@
       <c r="C518" s="4">
         <v>4238.9935999999998</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D518" s="6">
+        <v>9613.7353000000003</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>44729</v>
       </c>
@@ -6104,8 +7665,11 @@
       <c r="C519" s="4">
         <v>4309.0443999999998</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D519" s="6">
+        <v>9388.3475999999991</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>44736</v>
       </c>
@@ -6115,8 +7679,11 @@
       <c r="C520" s="4">
         <v>4394.7722999999996</v>
       </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D520" s="6">
+        <v>9278.2500999999993</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>44743</v>
       </c>
@@ -6126,8 +7693,11 @@
       <c r="C521" s="4">
         <v>4466.7178999999996</v>
       </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D521" s="6">
+        <v>9493.6352000000006</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>44750</v>
       </c>
@@ -6137,8 +7707,11 @@
       <c r="C522" s="4">
         <v>4428.7809999999999</v>
       </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D522" s="6">
+        <v>9257.7680999999993</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>44757</v>
       </c>
@@ -6148,8 +7721,11 @@
       <c r="C523" s="4">
         <v>4248.5272999999997</v>
       </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D523" s="6">
+        <v>8834.8024000000005</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>44764</v>
       </c>
@@ -6159,8 +7735,11 @@
       <c r="C524" s="4">
         <v>4238.2340999999997</v>
       </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D524" s="6">
+        <v>8877.2221000000009</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>44771</v>
       </c>
@@ -6170,8 +7749,11 @@
       <c r="C525" s="4">
         <v>4170.1018999999997</v>
       </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D525" s="6">
+        <v>8897.1905000000006</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>44778</v>
       </c>
@@ -6181,8 +7763,11 @@
       <c r="C526" s="4">
         <v>4156.9111000000003</v>
       </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D526" s="6">
+        <v>8680.2461000000003</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>44785</v>
       </c>
@@ -6192,8 +7777,11 @@
       <c r="C527" s="4">
         <v>4191.152</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D527" s="6">
+        <v>8936.1973999999991</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>44792</v>
       </c>
@@ -6203,8 +7791,11 @@
       <c r="C528" s="4">
         <v>4151.0738000000001</v>
       </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D528" s="6">
+        <v>8992.2576000000008</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>44799</v>
       </c>
@@ -6214,8 +7805,11 @@
       <c r="C529" s="4">
         <v>4107.5455000000002</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D529" s="6">
+        <v>9159.5393000000004</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>44806</v>
       </c>
@@ -6225,8 +7819,11 @@
       <c r="C530" s="4">
         <v>4023.6131</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D530" s="6">
+        <v>9271.1406999999999</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>44813</v>
       </c>
@@ -6236,8 +7833,11 @@
       <c r="C531" s="4">
         <v>4093.7874000000002</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D531" s="6">
+        <v>9690.4081000000006</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>44820</v>
       </c>
@@ -6247,8 +7847,11 @@
       <c r="C532" s="4">
         <v>3932.6826000000001</v>
       </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D532" s="6">
+        <v>9321.7291999999998</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>44827</v>
       </c>
@@ -6258,8 +7861,11 @@
       <c r="C533" s="4">
         <v>3856.0212000000001</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D533" s="6">
+        <v>9232.7099999999991</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>44834</v>
       </c>
@@ -6269,8 +7875,11 @@
       <c r="C534" s="4">
         <v>3804.8852999999999</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D534" s="6">
+        <v>9050.8600999999999</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>44848</v>
       </c>
@@ -6280,8 +7889,11 @@
       <c r="C535" s="4">
         <v>3842.4697999999999</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D535" s="6">
+        <v>9171.8621999999996</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>44855</v>
       </c>
@@ -6291,8 +7903,11 @@
       <c r="C536" s="4">
         <v>3742.8928999999998</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D536" s="6">
+        <v>9023.5514000000003</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>44862</v>
       </c>
@@ -6302,8 +7917,11 @@
       <c r="C537" s="4">
         <v>3541.3294999999998</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D537" s="6">
+        <v>8592.9472999999998</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>44869</v>
       </c>
@@ -6313,8 +7931,11 @@
       <c r="C538" s="4">
         <v>3767.1745999999998</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D538" s="6">
+        <v>8644.0231000000003</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>44876</v>
       </c>
@@ -6324,8 +7945,11 @@
       <c r="C539" s="4">
         <v>3788.4387000000002</v>
       </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D539" s="6">
+        <v>8918.7001</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>44883</v>
       </c>
@@ -6335,8 +7959,11 @@
       <c r="C540" s="4">
         <v>3801.5686000000001</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D540" s="6">
+        <v>8825.1221999999998</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>44890</v>
       </c>
@@ -6346,8 +7973,11 @@
       <c r="C541" s="4">
         <v>3775.7764000000002</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D541" s="6">
+        <v>9158.5828999999994</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>44897</v>
       </c>
@@ -6357,8 +7987,11 @@
       <c r="C542" s="4">
         <v>3870.9477999999999</v>
       </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D542" s="6">
+        <v>9230.3120999999992</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>44904</v>
       </c>
@@ -6368,8 +8001,11 @@
       <c r="C543" s="4">
         <v>3998.2442000000001</v>
       </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D543" s="6">
+        <v>9279.6339000000007</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>44911</v>
       </c>
@@ -6379,8 +8015,11 @@
       <c r="C544" s="4">
         <v>3954.2269999999999</v>
       </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D544" s="6">
+        <v>9168.8251</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>44918</v>
       </c>
@@ -6390,8 +8029,11 @@
       <c r="C545" s="4">
         <v>3828.2188000000001</v>
       </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D545" s="6">
+        <v>8829.0665000000008</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>44925</v>
       </c>
@@ -6401,8 +8043,11 @@
       <c r="C546" s="4">
         <v>3871.6338000000001</v>
       </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D546" s="6">
+        <v>8920.7631000000001</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>44932</v>
       </c>
@@ -6412,8 +8057,11 @@
       <c r="C547" s="4">
         <v>3980.8888000000002</v>
       </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D547" s="6">
+        <v>9023.2880000000005</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>44939</v>
       </c>
@@ -6423,8 +8071,11 @@
       <c r="C548" s="4">
         <v>4074.3771999999999</v>
       </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D548" s="6">
+        <v>9062.9359999999997</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>44946</v>
       </c>
@@ -6434,8 +8085,11 @@
       <c r="C549" s="4">
         <v>4181.5267000000003</v>
       </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D549" s="6">
+        <v>9214.2235000000001</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>44960</v>
       </c>
@@ -6445,8 +8099,11 @@
       <c r="C550" s="4">
         <v>4141.6319000000003</v>
       </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D550" s="6">
+        <v>9207.4424999999992</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>44967</v>
       </c>
@@ -6456,8 +8113,11 @@
       <c r="C551" s="4">
         <v>4106.3096999999998</v>
       </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D551" s="6">
+        <v>9273.1200000000008</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>44974</v>
       </c>
@@ -6467,8 +8127,11 @@
       <c r="C552" s="4">
         <v>4034.5070000000001</v>
       </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D552" s="6">
+        <v>9251.9578000000001</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>44981</v>
       </c>
@@ -6478,8 +8141,11 @@
       <c r="C553" s="4">
         <v>4061.0457000000001</v>
       </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D553" s="6">
+        <v>9547.3446000000004</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>44988</v>
       </c>
@@ -6489,8 +8155,11 @@
       <c r="C554" s="4">
         <v>4130.5513000000001</v>
       </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D554" s="6">
+        <v>9767.4058000000005</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>44995</v>
       </c>
@@ -6500,8 +8169,11 @@
       <c r="C555" s="4">
         <v>3967.1352000000002</v>
       </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D555" s="6">
+        <v>9518.5252999999993</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>45002</v>
       </c>
@@ -6511,8 +8183,11 @@
       <c r="C556" s="4">
         <v>3958.8193999999999</v>
       </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D556" s="6">
+        <v>9788.0689000000002</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>45009</v>
       </c>
@@ -6522,8 +8197,11 @@
       <c r="C557" s="4">
         <v>4027.0457000000001</v>
       </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D557" s="6">
+        <v>9718.8947000000007</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>45016</v>
       </c>
@@ -6533,8 +8211,11 @@
       <c r="C558" s="4">
         <v>4050.9256999999998</v>
       </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D558" s="6">
+        <v>9694.8461000000007</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>45023</v>
       </c>
@@ -6544,8 +8225,11 @@
       <c r="C559" s="4">
         <v>4123.2799000000005</v>
       </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D559" s="6">
+        <v>9748.4267</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>45030</v>
       </c>
@@ -6555,8 +8239,11 @@
       <c r="C560" s="4">
         <v>4091.9987999999998</v>
       </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D560" s="6">
+        <v>10005.375899999999</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>45037</v>
       </c>
@@ -6566,8 +8253,11 @@
       <c r="C561" s="4">
         <v>4032.5672</v>
       </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D561" s="6">
+        <v>10100.7261</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>45044</v>
       </c>
@@ -6577,8 +8267,11 @@
       <c r="C562" s="4">
         <v>4029.0857999999998</v>
       </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D562" s="6">
+        <v>10414.8583</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>45051</v>
       </c>
@@ -6588,8 +8281,11 @@
       <c r="C563" s="4">
         <v>4016.8773999999999</v>
       </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D563" s="6">
+        <v>10720.8424</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>45058</v>
       </c>
@@ -6599,8 +8295,11 @@
       <c r="C564" s="4">
         <v>3937.7622000000001</v>
       </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D564" s="6">
+        <v>10481.209000000001</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>45065</v>
       </c>
@@ -6610,8 +8309,11 @@
       <c r="C565" s="4">
         <v>3944.5403000000001</v>
       </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D565" s="6">
+        <v>10242.632799999999</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>45072</v>
       </c>
@@ -6621,8 +8323,11 @@
       <c r="C566" s="4">
         <v>3850.9511000000002</v>
       </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D566" s="6">
+        <v>10007.5088</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>45079</v>
       </c>
@@ -6632,8 +8337,11 @@
       <c r="C567" s="4">
         <v>3861.8337000000001</v>
       </c>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D567" s="6">
+        <v>10065.4149</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>45086</v>
       </c>
@@ -6643,8 +8351,11 @@
       <c r="C568" s="4">
         <v>3836.7026000000001</v>
       </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D568" s="6">
+        <v>10279.2053</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>45093</v>
       </c>
@@ -6654,8 +8365,11 @@
       <c r="C569" s="4">
         <v>3963.3508999999999</v>
       </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D569" s="6">
+        <v>10059.8681</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>45098</v>
       </c>
@@ -6665,8 +8379,11 @@
       <c r="C570" s="4">
         <v>3864.0322999999999</v>
       </c>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D570" s="6">
+        <v>9678.3243999999995</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>45107</v>
       </c>
@@ -6676,8 +8393,11 @@
       <c r="C571" s="4">
         <v>3842.4515999999999</v>
       </c>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D571" s="6">
+        <v>9680.0239000000001</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>45114</v>
       </c>
@@ -6687,8 +8407,11 @@
       <c r="C572" s="4">
         <v>3825.6988000000001</v>
       </c>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D572" s="6">
+        <v>9715.5499</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>45121</v>
       </c>
@@ -6698,8 +8421,11 @@
       <c r="C573" s="4">
         <v>3899.1026999999999</v>
       </c>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D573" s="6">
+        <v>9867.7016000000003</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>45128</v>
       </c>
@@ -6709,8 +8435,11 @@
       <c r="C574" s="4">
         <v>3821.91</v>
       </c>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D574" s="6">
+        <v>9679.6147000000001</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>45135</v>
       </c>
@@ -6720,8 +8449,11 @@
       <c r="C575" s="4">
         <v>3992.7375999999999</v>
       </c>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D575" s="6">
+        <v>10016.116900000001</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>45142</v>
       </c>
@@ -6731,8 +8463,11 @@
       <c r="C576" s="4">
         <v>4020.5792000000001</v>
       </c>
-    </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D576" s="6">
+        <v>10013.503199999999</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>45149</v>
       </c>
@@ -6742,8 +8477,11 @@
       <c r="C577" s="4">
         <v>3884.2538</v>
       </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D577" s="6">
+        <v>9728.5614999999998</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>45156</v>
       </c>
@@ -6753,8 +8491,11 @@
       <c r="C578" s="4">
         <v>3784.0038</v>
       </c>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D578" s="6">
+        <v>9698.1139999999996</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>45163</v>
       </c>
@@ -6764,8 +8505,11 @@
       <c r="C579" s="4">
         <v>3709.1516999999999</v>
       </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D579" s="6">
+        <v>9694.42</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>45170</v>
       </c>
@@ -6775,8 +8519,11 @@
       <c r="C580" s="4">
         <v>3791.4911999999999</v>
       </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D580" s="6">
+        <v>9735.9014999999999</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>45177</v>
       </c>
@@ -6786,8 +8533,11 @@
       <c r="C581" s="4">
         <v>3739.9926999999998</v>
       </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D581" s="6">
+        <v>9707.1381999999994</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>45184</v>
       </c>
@@ -6797,8 +8547,11 @@
       <c r="C582" s="4">
         <v>3708.7766000000001</v>
       </c>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D582" s="6">
+        <v>9863.6133000000009</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>45191</v>
       </c>
@@ -6808,8 +8561,11 @@
       <c r="C583" s="4">
         <v>3738.9326999999998</v>
       </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D583" s="6">
+        <v>9935.76</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>45197</v>
       </c>
@@ -6819,8 +8575,11 @@
       <c r="C584" s="4">
         <v>3689.5171999999998</v>
       </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D584" s="6">
+        <v>9853.0431000000008</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>45212</v>
       </c>
@@ -6830,8 +8589,11 @@
       <c r="C585" s="4">
         <v>3663.4104000000002</v>
       </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D585" s="6">
+        <v>9797.9128000000001</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>45219</v>
       </c>
@@ -6840,6 +8602,9 @@
       </c>
       <c r="C586" s="4">
         <v>3510.5889000000002</v>
+      </c>
+      <c r="D586" s="6">
+        <v>9592.9554000000007</v>
       </c>
     </row>
   </sheetData>
